--- a/results/raw_proportions.xlsx
+++ b/results/raw_proportions.xlsx
@@ -463,8 +463,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wellman2016a</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>244</v>
@@ -477,8 +479,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wellman2016b</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>195</v>
@@ -491,8 +495,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wellman2016c</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>136</v>
@@ -505,8 +511,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>305</v>
@@ -519,8 +527,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>304</v>
@@ -533,8 +543,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>305</v>
@@ -547,8 +559,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Harold2016a</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>463</v>
@@ -561,8 +575,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Harold2016b</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1254</v>
@@ -575,8 +591,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Harold2016c</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>837</v>
@@ -589,8 +607,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Harold2016d</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>698</v>
@@ -603,8 +623,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Schäpers2020a</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1237</v>
@@ -617,8 +639,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>283</v>
@@ -631,8 +655,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>413</v>
@@ -645,8 +671,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>297</v>
@@ -659,8 +687,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>208</v>
@@ -673,8 +703,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>275</v>
@@ -687,8 +719,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>291</v>
@@ -701,8 +735,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>271</v>
@@ -715,8 +751,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Huang2019a</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>180</v>
@@ -729,8 +767,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>221</v>
@@ -743,8 +783,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>395</v>
@@ -757,8 +799,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>177</v>
@@ -771,8 +815,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Colquitt2014a</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>331</v>
@@ -785,8 +831,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>210</v>
@@ -799,8 +847,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ong2018a</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>176</v>
@@ -813,8 +863,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hideg2020a</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>141</v>
@@ -827,8 +879,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>257</v>
@@ -841,8 +895,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hideg2020c</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>232</v>
@@ -855,8 +911,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hideg2020d</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>380</v>
@@ -869,8 +927,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Shao2018a</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>108</v>
@@ -883,8 +943,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Shao2018b</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>180</v>
@@ -897,8 +959,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Holtz2013a</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>325</v>
@@ -911,8 +975,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>226</v>
@@ -925,8 +991,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Greenbaum2018a</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>218</v>
@@ -939,8 +1007,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Barber2015a</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>191</v>
@@ -953,8 +1023,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Park2022a</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>330</v>
@@ -967,8 +1039,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Park2022b</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>313</v>
@@ -981,8 +1055,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>296</v>
@@ -995,8 +1071,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>482</v>
@@ -1009,8 +1087,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>480</v>
@@ -1023,8 +1103,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>300</v>
@@ -1037,8 +1119,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>267</v>
@@ -1051,8 +1135,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>134</v>
@@ -1065,8 +1151,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>386</v>
@@ -1079,8 +1167,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>347</v>
@@ -1093,8 +1183,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>337</v>
@@ -1107,8 +1199,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kim2022a</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>222</v>
@@ -1121,8 +1215,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Folger2022a</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>482</v>
@@ -1135,8 +1231,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>123</v>
@@ -1149,8 +1247,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>280</v>
@@ -1163,8 +1263,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Reb2018c</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>108</v>
@@ -1177,8 +1279,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Reb2018d</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>210</v>
@@ -1191,8 +1295,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Reb2018e</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>271</v>
@@ -1205,8 +1311,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>219</v>
@@ -1219,8 +1327,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>338</v>
@@ -1233,8 +1343,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>462</v>
@@ -1247,8 +1359,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>429</v>
@@ -1261,8 +1375,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>308</v>
@@ -1275,8 +1391,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Quade2020a</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>199</v>
@@ -1289,8 +1407,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Quade2020b</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>248</v>
@@ -1349,8 +1469,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>32</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Holtz2013a</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>2013</v>
@@ -1366,8 +1488,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>33</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>2013</v>
@@ -1383,8 +1507,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>23</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Colquitt2014a</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>2014</v>
@@ -1400,8 +1526,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>44</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>2014</v>
@@ -1417,8 +1545,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>35</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Barber2015a</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
@@ -1434,8 +1564,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wellman2016a</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>2016</v>
@@ -1451,8 +1583,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Wellman2016b</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>2016</v>
@@ -1468,8 +1602,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Wellman2016c</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>2016</v>
@@ -1485,8 +1621,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Harold2016a</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>2016</v>
@@ -1502,8 +1640,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Harold2016b</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>2016</v>
@@ -1519,8 +1659,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>9</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Harold2016c</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>2016</v>
@@ -1536,8 +1678,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>10</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Harold2016d</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>2016</v>
@@ -1553,8 +1697,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>24</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>2016</v>
@@ -1570,8 +1716,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>2017</v>
@@ -1587,8 +1735,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>2017</v>
@@ -1604,8 +1754,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>6</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>2017</v>
@@ -1621,8 +1773,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>2017</v>
@@ -1638,8 +1792,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>43</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>2017</v>
@@ -1655,8 +1811,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>54</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>2017</v>
@@ -1672,8 +1830,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>18</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>2018</v>
@@ -1689,8 +1849,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>25</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ong2018a</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>2018</v>
@@ -1706,8 +1868,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>30</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shao2018a</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>2018</v>
@@ -1723,8 +1887,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>31</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Shao2018b</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>2018</v>
@@ -1740,8 +1906,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>34</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Greenbaum2018a</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>2018</v>
@@ -1757,8 +1925,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>49</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>2018</v>
@@ -1774,598 +1944,668 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>55</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>2018</v>
       </c>
       <c r="C27" t="n">
+        <v>280</v>
+      </c>
+      <c r="D27" t="n">
+        <v>128</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Reb2018c</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C28" t="n">
+        <v>108</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2685185185185185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Reb2018d</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C29" t="n">
+        <v>210</v>
+      </c>
+      <c r="D29" t="n">
+        <v>76</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3619047619047619</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Reb2018e</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C30" t="n">
+        <v>271</v>
+      </c>
+      <c r="D30" t="n">
+        <v>94</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3468634686346864</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C31" t="n">
         <v>338</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>16</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E31" t="n">
         <v>0.04733727810650887</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>13</v>
-      </c>
-      <c r="B28" t="n">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>2019</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>413</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>125</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E32" t="n">
         <v>0.3026634382566586</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>19</v>
-      </c>
-      <c r="B29" t="n">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Huang2019a</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>2019</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>180</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>8</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E33" t="n">
         <v>0.04444444444444445</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>50</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C30" t="n">
-        <v>280</v>
-      </c>
-      <c r="D30" t="n">
-        <v>128</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.4571428571428571</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>11</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1237</v>
-      </c>
-      <c r="D31" t="n">
-        <v>145</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1172190784155214</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>26</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C32" t="n">
-        <v>141</v>
-      </c>
-      <c r="D32" t="n">
-        <v>26</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.1843971631205674</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C33" t="n">
-        <v>257</v>
-      </c>
-      <c r="D33" t="n">
-        <v>16</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0622568093385214</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>28</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Schäpers2020a</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>2020</v>
       </c>
       <c r="C34" t="n">
-        <v>232</v>
+        <v>1237</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.1172190784155214</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>29</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hideg2020a</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>2020</v>
       </c>
       <c r="C35" t="n">
-        <v>380</v>
+        <v>141</v>
       </c>
       <c r="D35" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.1843971631205674</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>51</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>2020</v>
       </c>
       <c r="C36" t="n">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="D36" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.0622568093385214</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>56</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hideg2020c</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>2020</v>
       </c>
       <c r="C37" t="n">
-        <v>462</v>
+        <v>232</v>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05411255411255411</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>58</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hideg2020d</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>2020</v>
       </c>
       <c r="C38" t="n">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07467532467532467</v>
+        <v>0.1184210526315789</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>59</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>2020</v>
       </c>
       <c r="C39" t="n">
+        <v>462</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.05411255411255411</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C40" t="n">
+        <v>308</v>
+      </c>
+      <c r="D40" t="n">
+        <v>23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.07467532467532467</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Quade2020a</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C41" t="n">
         <v>199</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>10</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E41" t="n">
         <v>0.05025125628140704</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>12</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C40" t="n">
-        <v>283</v>
-      </c>
-      <c r="D40" t="n">
-        <v>50</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.176678445229682</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C41" t="n">
-        <v>221</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.05429864253393665</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>38</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Quade2020b</t>
+        </is>
       </c>
       <c r="B42" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C42" t="n">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="D42" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>39</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>2021</v>
       </c>
       <c r="C43" t="n">
-        <v>482</v>
+        <v>283</v>
       </c>
       <c r="D43" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.176678445229682</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>40</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>2021</v>
       </c>
       <c r="C44" t="n">
-        <v>480</v>
+        <v>221</v>
       </c>
       <c r="D44" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.05429864253393665</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>41</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>2021</v>
       </c>
       <c r="C45" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D45" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>0.11</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>42</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>2021</v>
       </c>
       <c r="C46" t="n">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.05394190871369295</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>2021</v>
       </c>
       <c r="C47" t="n">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0345821325648415</v>
+        <v>0.08541666666666667</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>2021</v>
       </c>
       <c r="C48" t="n">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="D48" t="n">
         <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09792284866468842</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>52</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>2021</v>
       </c>
       <c r="C49" t="n">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="D49" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.01123595505617977</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>57</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>2021</v>
       </c>
       <c r="C50" t="n">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="D50" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.0345821325648415</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>60</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>2021</v>
       </c>
       <c r="C51" t="n">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.09792284866468842</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>14</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B52" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C52" t="n">
-        <v>297</v>
+        <v>429</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.1608391608391608</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>15</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>2022</v>
       </c>
       <c r="C53" t="n">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01346801346801347</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>16</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>2022</v>
       </c>
       <c r="C54" t="n">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>21</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>2022</v>
       </c>
       <c r="C55" t="n">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.05818181818181818</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>22</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>2022</v>
       </c>
       <c r="C56" t="n">
-        <v>177</v>
+        <v>395</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.02784810126582278</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>36</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>2022</v>
       </c>
       <c r="C57" t="n">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="D57" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.01129943502824859</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>37</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Park2022a</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>2022</v>
       </c>
       <c r="C58" t="n">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04153354632587859</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>47</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Park2022b</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>2022</v>
       </c>
       <c r="C59" t="n">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.04153354632587859</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>48</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kim2022a</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>2022</v>
       </c>
       <c r="C60" t="n">
-        <v>482</v>
+        <v>222</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01452282157676349</v>
+        <v>0.04054054054054054</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>53</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Folger2022a</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>2022</v>
       </c>
       <c r="C61" t="n">
-        <v>271</v>
+        <v>482</v>
       </c>
       <c r="D61" t="n">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3468634686346864</v>
+        <v>0.01452282157676349</v>
       </c>
     </row>
   </sheetData>
@@ -2420,8 +2660,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wellman2016a</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2442,8 +2684,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wellman2016b</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -2464,8 +2708,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wellman2016c</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2486,8 +2732,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -2508,8 +2756,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -2530,8 +2780,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -2552,8 +2804,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Harold2016a</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -2574,8 +2828,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Harold2016b</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -2596,8 +2852,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Harold2016c</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2618,8 +2876,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Harold2016d</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2640,8 +2900,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Schäpers2020a</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -2662,8 +2924,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -2684,8 +2948,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2706,8 +2972,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2728,8 +2996,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2750,8 +3020,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2772,8 +3044,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -2794,8 +3068,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2816,8 +3092,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Huang2019a</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2838,8 +3116,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2860,8 +3140,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -2882,8 +3164,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2904,8 +3188,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Colquitt2014a</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -2926,8 +3212,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -2948,8 +3236,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ong2018a</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>5</v>
@@ -2970,8 +3260,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hideg2020a</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>5</v>
@@ -2992,8 +3284,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>5</v>
@@ -3014,8 +3308,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hideg2020c</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>5</v>
@@ -3036,8 +3332,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hideg2020d</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>5</v>
@@ -3058,8 +3356,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Shao2018a</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -3080,8 +3380,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Shao2018b</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>6</v>
@@ -3102,8 +3404,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Holtz2013a</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>6</v>
@@ -3124,8 +3428,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>6</v>
@@ -3146,8 +3452,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Greenbaum2018a</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>6</v>
@@ -3168,8 +3476,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Barber2015a</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>6</v>
@@ -3190,8 +3500,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Park2022a</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -3212,8 +3524,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Park2022b</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>6</v>
@@ -3234,8 +3548,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>8</v>
@@ -3256,8 +3572,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>8</v>
@@ -3278,8 +3596,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>8</v>
@@ -3300,8 +3620,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>8</v>
@@ -3322,8 +3644,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>8</v>
@@ -3344,8 +3668,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>9</v>
@@ -3366,8 +3692,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>10</v>
@@ -3388,8 +3716,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>10</v>
@@ -3410,8 +3740,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>10</v>
@@ -3432,8 +3764,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kim2022a</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>10</v>
@@ -3454,8 +3788,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Folger2022a</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>10</v>
@@ -3476,8 +3812,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>11</v>
@@ -3498,8 +3836,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>11</v>
@@ -3520,8 +3860,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Reb2018c</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>11</v>
@@ -3542,8 +3884,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Reb2018d</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>11</v>
@@ -3564,8 +3908,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Reb2018e</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>11</v>
@@ -3586,8 +3932,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>13</v>
@@ -3608,8 +3956,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>13</v>
@@ -3630,8 +3980,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>13</v>
@@ -3652,8 +4004,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>15</v>
@@ -3674,8 +4028,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>17</v>
@@ -3696,8 +4052,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Quade2020a</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>18</v>
@@ -3718,8 +4076,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Quade2020b</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>18</v>
@@ -3791,8 +4151,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wellman2016c</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3813,8 +4175,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>23</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Colquitt2014a</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -3835,8 +4199,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>26</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hideg2020a</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -3857,8 +4223,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>28</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hideg2020c</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -3879,8 +4247,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>29</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hideg2020d</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -3901,8 +4271,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>35</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Barber2015a</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -3923,8 +4295,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>45</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -3945,8 +4319,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>46</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3967,8 +4343,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>51</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Reb2018c</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3989,8 +4367,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wellman2016a</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -4011,8 +4391,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Wellman2016b</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -4033,8 +4415,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -4055,8 +4439,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -4077,8 +4463,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>6</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -4099,8 +4487,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>8</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Harold2016b</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -4121,8 +4511,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>9</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Harold2016c</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -4143,8 +4535,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>10</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Harold2016d</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -4165,8 +4559,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>12</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -4187,8 +4583,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>14</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -4209,8 +4607,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>15</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -4231,8 +4631,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>16</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -4253,8 +4655,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>17</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -4275,8 +4679,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>18</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -4297,8 +4703,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>20</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -4319,8 +4727,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>21</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -4341,8 +4751,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>22</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -4363,8 +4775,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>24</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -4385,8 +4799,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>25</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ong2018a</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -4407,8 +4823,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>27</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -4429,8 +4847,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>33</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -4451,8 +4871,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>36</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Park2022a</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -4473,8 +4895,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>37</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Park2022b</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -4495,8 +4919,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>38</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -4517,8 +4943,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>39</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -4539,8 +4967,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>40</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -4561,8 +4991,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>41</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -4583,8 +5015,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>42</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -4605,8 +5039,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>43</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -4627,8 +5063,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>44</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -4649,8 +5087,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>47</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kim2022a</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -4671,8 +5111,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>48</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Folger2022a</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -4693,8 +5135,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>49</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -4715,8 +5159,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>50</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -4737,8 +5183,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>52</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Reb2018d</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -4759,8 +5207,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>54</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -4781,8 +5231,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>55</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -4803,8 +5255,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>58</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -4825,8 +5279,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>7</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Harold2016a</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
@@ -4847,8 +5303,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>30</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Shao2018a</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>2</v>
@@ -4869,8 +5327,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>31</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Shao2018b</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>2</v>
@@ -4891,8 +5351,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>32</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Holtz2013a</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>2</v>
@@ -4913,8 +5375,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>34</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Greenbaum2018a</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>2</v>
@@ -4935,8 +5399,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>11</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Schäpers2020a</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -4957,8 +5423,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>13</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>3</v>
@@ -4979,8 +5447,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>59</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Quade2020a</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -5001,8 +5471,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>60</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Quade2020b</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -5074,8 +5546,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wellman2016a</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -5096,8 +5570,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wellman2016b</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -5118,8 +5594,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wellman2016c</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -5140,8 +5618,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -5162,8 +5642,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -5184,8 +5666,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -5206,8 +5690,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Harold2016b</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -5228,8 +5714,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Harold2016c</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -5250,8 +5738,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Harold2016d</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -5272,8 +5762,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Schäpers2020a</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -5294,8 +5786,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>12</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -5316,8 +5810,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>14</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -5338,8 +5834,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>15</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -5360,8 +5858,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>16</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -5382,8 +5882,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>17</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -5404,8 +5906,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>18</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -5426,8 +5930,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>19</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Huang2019a</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -5448,8 +5954,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>20</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -5470,8 +5978,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>21</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -5492,8 +6002,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>22</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -5514,8 +6026,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>23</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Colquitt2014a</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -5536,8 +6050,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>24</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -5558,8 +6074,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>26</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hideg2020a</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -5580,8 +6098,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>27</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5602,8 +6122,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>28</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hideg2020c</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -5624,8 +6146,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>29</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hideg2020d</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5646,8 +6170,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>30</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Shao2018a</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5668,8 +6194,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>31</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Shao2018b</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5690,8 +6218,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>33</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -5712,8 +6242,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>34</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Greenbaum2018a</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -5734,8 +6266,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>35</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Barber2015a</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -5756,8 +6290,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>36</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Park2022a</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -5778,8 +6314,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>37</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Park2022b</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -5800,8 +6338,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>38</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -5822,8 +6362,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>39</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -5844,8 +6386,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>40</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -5866,8 +6410,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>41</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -5888,8 +6434,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>42</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -5910,8 +6458,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>43</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -5932,8 +6482,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>44</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -5954,8 +6506,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>45</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -5976,8 +6530,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>46</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -5998,8 +6554,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>47</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kim2022a</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -6020,8 +6578,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>49</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -6042,8 +6602,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>50</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -6064,8 +6626,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>51</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Reb2018c</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -6086,8 +6650,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>53</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Reb2018e</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -6108,8 +6674,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>54</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -6130,8 +6698,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>55</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -6152,8 +6722,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>56</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -6174,8 +6746,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>57</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -6196,8 +6770,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>58</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -6218,8 +6794,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>59</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Quade2020a</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -6240,8 +6818,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>60</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Quade2020b</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -6262,8 +6842,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Harold2016a</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>2</v>
@@ -6284,8 +6866,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>25</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ong2018a</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>2</v>
@@ -6306,8 +6890,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>32</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Holtz2013a</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>2</v>
@@ -6328,8 +6914,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>48</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Folger2022a</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -6350,8 +6938,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>52</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Reb2018d</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>3</v>
@@ -6423,8 +7013,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wellman2016b</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -6445,8 +7037,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -6467,8 +7061,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -6489,8 +7085,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -6511,8 +7109,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Harold2016b</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -6533,8 +7133,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Harold2016c</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -6555,8 +7157,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Harold2016d</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -6577,8 +7181,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>12</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -6599,8 +7205,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>14</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -6621,8 +7229,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>15</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -6643,8 +7253,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>17</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -6665,8 +7277,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>19</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Huang2019a</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -6687,8 +7301,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>21</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -6709,8 +7325,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>22</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -6731,8 +7349,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>27</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -6753,8 +7373,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>36</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Park2022a</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -6775,8 +7397,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>37</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Park2022b</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -6797,8 +7421,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>44</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -6819,8 +7445,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>47</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kim2022a</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -6841,8 +7469,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>49</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -6863,8 +7493,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>50</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -6885,8 +7517,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>53</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Reb2018e</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -6907,8 +7541,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>56</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -6929,8 +7565,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>57</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -6951,8 +7589,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>58</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -6973,8 +7613,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Wellman2016a</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -6995,8 +7637,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>16</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -7017,8 +7661,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>18</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>2</v>
@@ -7039,8 +7685,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>20</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -7061,8 +7709,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>38</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -7083,8 +7733,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>39</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -7105,8 +7757,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>40</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -7127,8 +7781,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>41</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -7149,8 +7805,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>42</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -7171,8 +7829,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>23</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Colquitt2014a</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -7193,8 +7853,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>33</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>3</v>
@@ -7215,8 +7877,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>13</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -7237,8 +7901,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>24</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>5</v>
@@ -7259,8 +7925,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>43</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>5</v>
@@ -7281,8 +7949,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>54</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>5</v>
@@ -7303,8 +7973,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>55</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>5</v>
@@ -7381,8 +8053,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -7408,8 +8082,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -7435,8 +8111,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -7462,8 +8140,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>12</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -7489,8 +8169,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>13</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -7516,8 +8198,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>14</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -7543,8 +8227,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>15</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -7570,8 +8256,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>16</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -7597,8 +8285,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>17</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -7624,8 +8314,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>18</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -7651,8 +8343,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -7678,8 +8372,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>21</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -7705,8 +8401,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>22</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -7732,8 +8430,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>24</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -7759,8 +8459,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>26</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hideg2020a</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -7786,8 +8488,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>27</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -7813,8 +8517,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>28</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hideg2020c</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -7840,8 +8546,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>29</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hideg2020d</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -7867,8 +8575,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>30</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shao2018a</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -7894,8 +8604,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>33</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -7921,8 +8633,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>35</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Barber2015a</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -7948,8 +8662,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>38</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -7975,8 +8691,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>39</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -8002,8 +8720,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>40</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -8029,8 +8749,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>41</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -8056,8 +8778,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>42</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -8083,8 +8807,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>44</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -8110,8 +8836,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>45</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -8137,8 +8865,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>46</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -8164,8 +8894,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>49</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -8191,8 +8923,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>50</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -8218,8 +8952,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>51</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Reb2018c</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -8245,8 +8981,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>52</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Reb2018d</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -8272,8 +9010,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>53</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Reb2018e</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -8299,8 +9039,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>57</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -8326,8 +9068,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>58</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -8353,8 +9097,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>59</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Quade2020a</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -8380,8 +9126,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>60</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quade2020b</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -8407,8 +9155,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>13</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -8434,8 +9184,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>19</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Huang2019a</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -8461,8 +9213,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>34</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Greenbaum2018a</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -8488,8 +9242,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>54</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -8515,8 +9271,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>55</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -8542,8 +9300,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>57</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -8569,8 +9329,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>3</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Wellman2016c</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -8596,8 +9358,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>7</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Harold2016a</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>3</v>
@@ -8623,8 +9387,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>12</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>3</v>
@@ -8648,8 +9414,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>56</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>3</v>
@@ -8673,8 +9441,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>58</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -8700,8 +9470,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>12</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>4</v>
@@ -8725,8 +9497,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>43</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>4</v>
@@ -8752,8 +9526,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>45</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>4</v>
@@ -8779,8 +9555,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>46</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>4</v>
@@ -8806,8 +9584,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>56</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -8833,8 +9613,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>12</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>5</v>
@@ -8860,8 +9642,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>54</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>6</v>
@@ -8887,8 +9671,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>54</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>9</v>
@@ -8912,8 +9698,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>55</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>9</v>
@@ -8939,8 +9727,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>56</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>10</v>
@@ -9027,8 +9817,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>13</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -9059,8 +9851,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>19</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Huang2019a</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -9091,8 +9885,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>34</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Greenbaum2018a</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -9123,8 +9919,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>54</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -9155,8 +9953,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>55</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -9187,8 +9987,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>57</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -9219,8 +10021,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>12</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
@@ -9251,8 +10055,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>12</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -9281,8 +10087,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>43</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strauss2017a</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -9313,8 +10121,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>45</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -9345,8 +10155,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>46</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -9377,8 +10189,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>56</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -9409,8 +10223,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Huang2017a</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -9441,8 +10257,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Huang2017b</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -9473,8 +10291,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Huang2017c</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -9505,8 +10325,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>12</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -9537,8 +10359,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>13</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Taylor2019a</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -9569,8 +10393,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>14</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Greenbaum2022a</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -9601,8 +10427,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>15</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Greenbaum2022b</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -9633,8 +10461,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>16</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Greenbaum2022c</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -9665,8 +10495,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>17</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hideg2017a</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -9697,8 +10529,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>18</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ouyang2018a</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -9729,8 +10563,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>20</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Koopman2021a</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -9761,8 +10597,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>21</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Lanaj2022a</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -9793,8 +10631,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>22</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Xu2022a</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -9825,8 +10665,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>24</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colbert2016a</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -9857,8 +10699,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hideg2020a</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -9889,8 +10733,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hideg2020b</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -9921,8 +10767,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hideg2020c</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -9953,8 +10801,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hideg2020d</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -9985,8 +10835,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Shao2018a</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -10017,8 +10869,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>33</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Holtz2013b</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -10049,8 +10903,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>35</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Barber2015a</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -10081,8 +10937,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>38</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>McIlroy2021a</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -10113,8 +10971,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>39</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Boekhorst2021a</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -10145,8 +11005,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>40</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Boekhorst2021b</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -10177,8 +11039,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>41</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Boekhorst2021c</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -10209,8 +11073,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>42</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Boekhorst2021d</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -10241,8 +11107,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>44</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Burns2014a</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -10273,8 +11141,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>45</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Golubovich2021a</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -10305,8 +11175,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>46</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Golubovich2021b</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -10337,8 +11209,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>49</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Reb2018a</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -10369,8 +11243,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>50</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Reb2018b</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -10401,8 +11277,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>51</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Reb2018c</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -10433,8 +11311,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>52</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Reb2018d</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -10465,8 +11345,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>53</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Reb2018e</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -10497,8 +11379,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>57</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Noble2021a</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -10529,8 +11413,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>58</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -10561,8 +11447,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>59</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Quade2020a</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -10593,8 +11481,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>60</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Quade2020b</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -10625,8 +11515,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>54</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>9</v>
@@ -10655,8 +11547,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>55</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Richter2018a</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>9</v>
@@ -10687,8 +11581,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>56</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>10</v>
@@ -10719,8 +11615,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Wellman2016c</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>3</v>
@@ -10751,8 +11649,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Harold2016a</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -10783,8 +11683,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>12</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Alessandri2021a</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -10813,8 +11715,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Merritt2020a</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -10843,8 +11747,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Vance2020a</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -10875,8 +11781,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>54</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Richter2017a</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>6</v>

--- a/results/raw_proportions.xlsx
+++ b/results/raw_proportions.xlsx
@@ -485,13 +485,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02049180327868852</v>
+        <v>0.0205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00271526042394666</v>
+        <v>0.0027</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03826834613343039</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.0462</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01670461907654768</v>
+        <v>0.0167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07560307323114462</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="4">
@@ -529,13 +529,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0147</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.005524641353770128</v>
+        <v>-0.0055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03493640605965248</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="5">
@@ -551,13 +551,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05573770491803279</v>
+        <v>0.0557</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="6">
@@ -573,13 +573,13 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.0592</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="7">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0492</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02159827213822894</v>
+        <v>0.0216</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008357122135748974</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0348394221407089</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="9">
@@ -639,13 +639,13 @@
         <v>227</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1810207336523126</v>
+        <v>0.181</v>
       </c>
       <c r="E9" t="n">
-        <v>0.159709924653392</v>
+        <v>0.1597</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2023315426512332</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="10">
@@ -661,13 +661,13 @@
         <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04420549581839905</v>
+        <v>0.0442</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03028015736117892</v>
+        <v>0.0303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05813083427561918</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="11">
@@ -683,13 +683,13 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04154727793696275</v>
+        <v>0.0415</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02674334820826102</v>
+        <v>0.0267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05635120766566448</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="12">
@@ -705,13 +705,13 @@
         <v>145</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1172190784155214</v>
+        <v>0.1172</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09929285264222665</v>
+        <v>0.0993</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1351453041888162</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="13">
@@ -727,13 +727,13 @@
         <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176678445229682</v>
+        <v>0.1767</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1322428092419637</v>
+        <v>0.1323</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2211140812174003</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="14">
@@ -749,13 +749,13 @@
         <v>125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3026634382566586</v>
+        <v>0.3027</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2583562425085045</v>
+        <v>0.2584</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3469706340048127</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="15">
@@ -771,13 +771,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.0135</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0037</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="17">
@@ -815,13 +815,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.0582</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="18">
@@ -837,13 +837,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.0515</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="19">
@@ -859,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02214022140221402</v>
+        <v>0.0221</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="20">
@@ -881,13 +881,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01433875687403752</v>
+        <v>0.0143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07455013201485138</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="21">
@@ -903,13 +903,13 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05429864253393665</v>
+        <v>0.0543</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="22">
@@ -925,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.0278</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="23">
@@ -947,13 +947,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.0113</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="24">
@@ -969,13 +969,13 @@
         <v>97</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2930513595166163</v>
+        <v>0.2931</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2440170689576247</v>
+        <v>0.2441</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3420856500756079</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="25">
@@ -991,13 +991,13 @@
         <v>41</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1952</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="26">
@@ -1016,10 +1016,10 @@
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1860276369650646</v>
+        <v>0.186</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3139723630349354</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +1035,13 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.1844</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1203861035355593</v>
+        <v>0.1204</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2484082227055754</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="28">
@@ -1057,13 +1057,13 @@
         <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0622568093385214</v>
+        <v>0.0623</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="29">
@@ -1079,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0603</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02970344352618915</v>
+        <v>0.0297</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09098621164622464</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1101,13 +1101,13 @@
         <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.1184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08593466990393218</v>
+        <v>0.0859</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1509074353592257</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="31">
@@ -1123,13 +1123,13 @@
         <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2222</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1438147014689978</v>
+        <v>0.1438</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3006297429754466</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="32">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1222</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07437252244273455</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1700719220017099</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
@@ -1167,13 +1167,13 @@
         <v>24</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07384615384615385</v>
+        <v>0.0738</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04541385873574227</v>
+        <v>0.0454</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1022784489565654</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="34">
@@ -1189,13 +1189,13 @@
         <v>16</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.0708</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="35">
@@ -1211,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07798165137614679</v>
+        <v>0.078</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04238691014589973</v>
+        <v>0.0424</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1135763926063939</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="36">
@@ -1233,13 +1233,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05759162303664921</v>
+        <v>0.0576</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02455233841287974</v>
+        <v>0.0246</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09063090766041869</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="37">
@@ -1255,13 +1255,13 @@
         <v>50</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1515</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1128302764122747</v>
+        <v>0.1128</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1902000266180283</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="38">
@@ -1277,13 +1277,13 @@
         <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04153354632587859</v>
+        <v>0.0415</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01942990176752903</v>
+        <v>0.0194</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06363719088422816</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="39">
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0541</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="40">
@@ -1321,13 +1321,13 @@
         <v>26</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.0539</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0337</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="41">
@@ -1343,13 +1343,13 @@
         <v>41</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.0854</v>
       </c>
       <c r="E41" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="F41" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="42">
@@ -1368,10 +1368,10 @@
         <v>0.11</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="43">
@@ -1387,13 +1387,13 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.0112</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="44">
@@ -1409,13 +1409,13 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.0522</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0145</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1431,13 +1431,13 @@
         <v>120</v>
       </c>
       <c r="D45" t="n">
-        <v>0.310880829015544</v>
+        <v>0.3109</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="46">
@@ -1453,13 +1453,13 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0345821325648415</v>
+        <v>0.0346</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01535710791230815</v>
+        <v>0.0154</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05380715721737485</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="47">
@@ -1475,13 +1475,13 @@
         <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09792284866468842</v>
+        <v>0.0979</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06619088111733341</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1296548162120434</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="48">
@@ -1497,13 +1497,13 @@
         <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.0405</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01459697363229948</v>
+        <v>0.0146</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06648410744878161</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="49">
@@ -1519,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01452282157676349</v>
+        <v>0.0145</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003842769791901453</v>
+        <v>0.0038</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02520287336162552</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="50">
@@ -1541,13 +1541,13 @@
         <v>46</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.374</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="51">
@@ -1563,13 +1563,13 @@
         <v>128</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4571</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="F51" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="52">
@@ -1585,13 +1585,13 @@
         <v>29</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2685</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1849341621868319</v>
+        <v>0.1849</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3521028748502052</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="53">
@@ -1607,13 +1607,13 @@
         <v>76</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.3619</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2969100019306258</v>
+        <v>0.2969</v>
       </c>
       <c r="F53" t="n">
-        <v>0.426899521878898</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="54">
@@ -1629,13 +1629,13 @@
         <v>94</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3468634686346864</v>
+        <v>0.3469</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2901945775003537</v>
+        <v>0.2902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.403532359769019</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="55">
@@ -1651,13 +1651,13 @@
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0639269406392694</v>
+        <v>0.0639</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03152859255409078</v>
+        <v>0.0315</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09632528872444802</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="56">
@@ -1673,13 +1673,13 @@
         <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.0473</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0246980837557352</v>
+        <v>0.0247</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06997647245728254</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="57">
@@ -1695,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05411255411255411</v>
+        <v>0.0541</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03348271454943509</v>
+        <v>0.0335</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07474239367567313</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="58">
@@ -1717,13 +1717,13 @@
         <v>69</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.1608</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1260745038671384</v>
+        <v>0.126</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1956038178111832</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="59">
@@ -1739,13 +1739,13 @@
         <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07467532467532467</v>
+        <v>0.0747</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04531854832283559</v>
+        <v>0.0453</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1040321010278138</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="60">
@@ -1761,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05025125628140704</v>
+        <v>0.0503</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01989841307387907</v>
+        <v>0.0199</v>
       </c>
       <c r="F60" t="n">
-        <v>0.080604099488935</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1783,13 +1783,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.0161</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0004508583094761202</v>
+        <v>0.0004</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03180720620665291</v>
+        <v>0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -1864,13 +1864,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07384615384615385</v>
+        <v>0.0738</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04541385873574227</v>
+        <v>0.0454</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1022784489565654</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="3">
@@ -1889,13 +1889,13 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.0708</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="4">
@@ -1914,13 +1914,13 @@
         <v>97</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2930513595166163</v>
+        <v>0.2931</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2440170689576247</v>
+        <v>0.2441</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3420856500756079</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="5">
@@ -1939,13 +1939,13 @@
         <v>120</v>
       </c>
       <c r="E5" t="n">
-        <v>0.310880829015544</v>
+        <v>0.3109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="6">
@@ -1964,13 +1964,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05759162303664921</v>
+        <v>0.0576</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02455233841287974</v>
+        <v>0.0246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09063090766041869</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="7">
@@ -1989,13 +1989,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02049180327868852</v>
+        <v>0.0205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00271526042394666</v>
+        <v>0.0027</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03826834613343039</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="8">
@@ -2014,13 +2014,13 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.0462</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01670461907654768</v>
+        <v>0.0167</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07560307323114462</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="9">
@@ -2039,13 +2039,13 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0147</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005524641353770128</v>
+        <v>-0.0055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03493640605965248</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="10">
@@ -2064,13 +2064,13 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02159827213822894</v>
+        <v>0.0216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008357122135748974</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0348394221407089</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="11">
@@ -2089,13 +2089,13 @@
         <v>227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1810207336523126</v>
+        <v>0.181</v>
       </c>
       <c r="F11" t="n">
-        <v>0.159709924653392</v>
+        <v>0.1597</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2023315426512332</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="12">
@@ -2114,13 +2114,13 @@
         <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04420549581839905</v>
+        <v>0.0442</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03028015736117892</v>
+        <v>0.0303</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05813083427561918</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="13">
@@ -2139,13 +2139,13 @@
         <v>29</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04154727793696275</v>
+        <v>0.0415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02674334820826102</v>
+        <v>0.0267</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05635120766566448</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="14">
@@ -2164,13 +2164,13 @@
         <v>41</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1952</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="15">
@@ -2189,13 +2189,13 @@
         <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05573770491803279</v>
+        <v>0.0557</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="16">
@@ -2214,13 +2214,13 @@
         <v>18</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.0592</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="17">
@@ -2239,13 +2239,13 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0492</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="18">
@@ -2264,13 +2264,13 @@
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.0515</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="19">
@@ -2289,13 +2289,13 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.0522</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0145</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -2314,13 +2314,13 @@
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0639269406392694</v>
+        <v>0.0639</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03152859255409078</v>
+        <v>0.0315</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09632528872444802</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="21">
@@ -2339,13 +2339,13 @@
         <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02214022140221402</v>
+        <v>0.0221</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="22">
@@ -2367,10 +2367,10 @@
         <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1860276369650646</v>
+        <v>0.186</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3139723630349354</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="23">
@@ -2389,13 +2389,13 @@
         <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1438147014689978</v>
+        <v>0.1438</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3006297429754466</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="24">
@@ -2414,13 +2414,13 @@
         <v>22</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1222</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07437252244273455</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1700719220017099</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
@@ -2439,13 +2439,13 @@
         <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07798165137614679</v>
+        <v>0.078</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04238691014589973</v>
+        <v>0.0424</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1135763926063939</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="26">
@@ -2464,13 +2464,13 @@
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.374</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="27">
@@ -2489,13 +2489,13 @@
         <v>128</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4571</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="G27" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="28">
@@ -2514,13 +2514,13 @@
         <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2685</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1849341621868319</v>
+        <v>0.1849</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3521028748502052</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="29">
@@ -2539,13 +2539,13 @@
         <v>76</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.3619</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2969100019306258</v>
+        <v>0.2969</v>
       </c>
       <c r="G29" t="n">
-        <v>0.426899521878898</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="30">
@@ -2564,13 +2564,13 @@
         <v>94</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3468634686346864</v>
+        <v>0.3469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2901945775003537</v>
+        <v>0.2902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.403532359769019</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="31">
@@ -2589,13 +2589,13 @@
         <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.0473</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0246980837557352</v>
+        <v>0.0247</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06997647245728254</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="32">
@@ -2614,13 +2614,13 @@
         <v>125</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3026634382566586</v>
+        <v>0.3027</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2583562425085045</v>
+        <v>0.2584</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3469706340048127</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="33">
@@ -2639,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01433875687403752</v>
+        <v>0.0143</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07455013201485138</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="34">
@@ -2664,13 +2664,13 @@
         <v>145</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1172190784155214</v>
+        <v>0.1172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09929285264222665</v>
+        <v>0.0993</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1351453041888162</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="35">
@@ -2689,13 +2689,13 @@
         <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.1844</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1203861035355593</v>
+        <v>0.1204</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2484082227055754</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="36">
@@ -2714,13 +2714,13 @@
         <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0622568093385214</v>
+        <v>0.0623</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="37">
@@ -2739,13 +2739,13 @@
         <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0603</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02970344352618915</v>
+        <v>0.0297</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09098621164622464</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -2764,13 +2764,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.1184</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08593466990393218</v>
+        <v>0.0859</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1509074353592257</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="39">
@@ -2789,13 +2789,13 @@
         <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05411255411255411</v>
+        <v>0.0541</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03348271454943509</v>
+        <v>0.0335</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07474239367567313</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="40">
@@ -2814,13 +2814,13 @@
         <v>23</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07467532467532467</v>
+        <v>0.0747</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04531854832283559</v>
+        <v>0.0453</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1040321010278138</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="41">
@@ -2839,13 +2839,13 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05025125628140704</v>
+        <v>0.0503</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01989841307387907</v>
+        <v>0.0199</v>
       </c>
       <c r="G41" t="n">
-        <v>0.080604099488935</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2864,13 +2864,13 @@
         <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.0161</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0004508583094761202</v>
+        <v>0.0004</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03180720620665291</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="43">
@@ -2889,13 +2889,13 @@
         <v>50</v>
       </c>
       <c r="E43" t="n">
-        <v>0.176678445229682</v>
+        <v>0.1767</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1322428092419637</v>
+        <v>0.1323</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2211140812174003</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="44">
@@ -2914,13 +2914,13 @@
         <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05429864253393665</v>
+        <v>0.0543</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="45">
@@ -2939,13 +2939,13 @@
         <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0541</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="46">
@@ -2964,13 +2964,13 @@
         <v>26</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.0539</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0337</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="47">
@@ -2989,13 +2989,13 @@
         <v>41</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.0854</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="G47" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="48">
@@ -3017,10 +3017,10 @@
         <v>0.11</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="49">
@@ -3039,13 +3039,13 @@
         <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.0112</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="50">
@@ -3064,13 +3064,13 @@
         <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0345821325648415</v>
+        <v>0.0346</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01535710791230815</v>
+        <v>0.0154</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05380715721737485</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="51">
@@ -3089,13 +3089,13 @@
         <v>33</v>
       </c>
       <c r="E51" t="n">
-        <v>0.09792284866468842</v>
+        <v>0.0979</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06619088111733341</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1296548162120434</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="52">
@@ -3114,13 +3114,13 @@
         <v>69</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.1608</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1260745038671384</v>
+        <v>0.126</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1956038178111832</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="53">
@@ -3139,13 +3139,13 @@
         <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.0135</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="54">
@@ -3164,13 +3164,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0037</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="55">
@@ -3189,13 +3189,13 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.0582</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="56">
@@ -3214,13 +3214,13 @@
         <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.0278</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="57">
@@ -3239,13 +3239,13 @@
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.0113</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="58">
@@ -3264,13 +3264,13 @@
         <v>50</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1515</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1128302764122747</v>
+        <v>0.1128</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1902000266180283</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="59">
@@ -3289,13 +3289,13 @@
         <v>13</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04153354632587859</v>
+        <v>0.0415</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01942990176752903</v>
+        <v>0.0194</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06363719088422816</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="60">
@@ -3314,13 +3314,13 @@
         <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.0405</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01459697363229948</v>
+        <v>0.0146</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06648410744878161</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="61">
@@ -3339,13 +3339,13 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01452282157676349</v>
+        <v>0.0145</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003842769791901453</v>
+        <v>0.0038</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02520287336162552</v>
+        <v>0.0252</v>
       </c>
     </row>
   </sheetData>
@@ -3430,13 +3430,13 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02049180327868852</v>
+        <v>0.0205</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00271526042394666</v>
+        <v>0.0027</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03826834613343039</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="3">
@@ -3460,13 +3460,13 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.0462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01670461907654768</v>
+        <v>0.0167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07560307323114462</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="4">
@@ -3490,13 +3490,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0147</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.005524641353770128</v>
+        <v>-0.0055</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03493640605965248</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="5">
@@ -3520,13 +3520,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05573770491803279</v>
+        <v>0.0557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="6">
@@ -3550,13 +3550,13 @@
         <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.0592</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="7">
@@ -3580,13 +3580,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0492</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="8">
@@ -3610,13 +3610,13 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02159827213822894</v>
+        <v>0.0216</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008357122135748974</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0348394221407089</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="9">
@@ -3640,13 +3640,13 @@
         <v>227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1810207336523126</v>
+        <v>0.181</v>
       </c>
       <c r="G9" t="n">
-        <v>0.159709924653392</v>
+        <v>0.1597</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2023315426512332</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="10">
@@ -3670,13 +3670,13 @@
         <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04420549581839905</v>
+        <v>0.0442</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03028015736117892</v>
+        <v>0.0303</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05813083427561918</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="11">
@@ -3700,13 +3700,13 @@
         <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04154727793696275</v>
+        <v>0.0415</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02674334820826102</v>
+        <v>0.0267</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05635120766566448</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="12">
@@ -3730,13 +3730,13 @@
         <v>145</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1172190784155214</v>
+        <v>0.1172</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09929285264222665</v>
+        <v>0.0993</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1351453041888162</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="13">
@@ -3760,13 +3760,13 @@
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>0.176678445229682</v>
+        <v>0.1767</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1322428092419637</v>
+        <v>0.1323</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2211140812174003</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="14">
@@ -3790,13 +3790,13 @@
         <v>125</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3026634382566586</v>
+        <v>0.3027</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2583562425085045</v>
+        <v>0.2584</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3469706340048127</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="15">
@@ -3820,13 +3820,13 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.0135</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="16">
@@ -3850,13 +3850,13 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0037</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="17">
@@ -3880,13 +3880,13 @@
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.0582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="18">
@@ -3910,13 +3910,13 @@
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.0515</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="19">
@@ -3940,13 +3940,13 @@
         <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02214022140221402</v>
+        <v>0.0221</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="20">
@@ -3970,13 +3970,13 @@
         <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01433875687403752</v>
+        <v>0.0143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07455013201485138</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="21">
@@ -4000,13 +4000,13 @@
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05429864253393665</v>
+        <v>0.0543</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="22">
@@ -4030,13 +4030,13 @@
         <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.0278</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="23">
@@ -4060,13 +4060,13 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.0113</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="24">
@@ -4090,13 +4090,13 @@
         <v>97</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2930513595166163</v>
+        <v>0.2931</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2440170689576247</v>
+        <v>0.2441</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3420856500756079</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="25">
@@ -4120,13 +4120,13 @@
         <v>41</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1952</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="26">
@@ -4153,10 +4153,10 @@
         <v>0.25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1860276369650646</v>
+        <v>0.186</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3139723630349354</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="27">
@@ -4180,13 +4180,13 @@
         <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.1844</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1203861035355593</v>
+        <v>0.1204</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2484082227055754</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="28">
@@ -4210,13 +4210,13 @@
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0622568093385214</v>
+        <v>0.0623</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="29">
@@ -4240,13 +4240,13 @@
         <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0603</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02970344352618915</v>
+        <v>0.0297</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09098621164622464</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -4270,13 +4270,13 @@
         <v>45</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.1184</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08593466990393218</v>
+        <v>0.0859</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1509074353592257</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="31">
@@ -4300,13 +4300,13 @@
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2222</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1438147014689978</v>
+        <v>0.1438</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3006297429754466</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="32">
@@ -4330,13 +4330,13 @@
         <v>22</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1222</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07437252244273455</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1700719220017099</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
@@ -4360,13 +4360,13 @@
         <v>24</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07384615384615385</v>
+        <v>0.0738</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04541385873574227</v>
+        <v>0.0454</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1022784489565654</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="34">
@@ -4390,13 +4390,13 @@
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.0708</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="35">
@@ -4420,13 +4420,13 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07798165137614679</v>
+        <v>0.078</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04238691014589973</v>
+        <v>0.0424</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1135763926063939</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="36">
@@ -4450,13 +4450,13 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05759162303664921</v>
+        <v>0.0576</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02455233841287974</v>
+        <v>0.0246</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09063090766041869</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="37">
@@ -4480,13 +4480,13 @@
         <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1515</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1128302764122747</v>
+        <v>0.1128</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1902000266180283</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="38">
@@ -4510,13 +4510,13 @@
         <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04153354632587859</v>
+        <v>0.0415</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01942990176752903</v>
+        <v>0.0194</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06363719088422816</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="39">
@@ -4540,13 +4540,13 @@
         <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0541</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="40">
@@ -4570,13 +4570,13 @@
         <v>26</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.0539</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0337</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="41">
@@ -4600,13 +4600,13 @@
         <v>41</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.0854</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="H41" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="42">
@@ -4633,10 +4633,10 @@
         <v>0.11</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="43">
@@ -4660,13 +4660,13 @@
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.0112</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="44">
@@ -4690,13 +4690,13 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.0522</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0145</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -4720,13 +4720,13 @@
         <v>120</v>
       </c>
       <c r="F45" t="n">
-        <v>0.310880829015544</v>
+        <v>0.3109</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="46">
@@ -4750,13 +4750,13 @@
         <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0345821325648415</v>
+        <v>0.0346</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01535710791230815</v>
+        <v>0.0154</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05380715721737485</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="47">
@@ -4780,13 +4780,13 @@
         <v>33</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09792284866468842</v>
+        <v>0.0979</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06619088111733341</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1296548162120434</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="48">
@@ -4810,13 +4810,13 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.0405</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01459697363229948</v>
+        <v>0.0146</v>
       </c>
       <c r="H48" t="n">
-        <v>0.06648410744878161</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="49">
@@ -4840,13 +4840,13 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01452282157676349</v>
+        <v>0.0145</v>
       </c>
       <c r="G49" t="n">
-        <v>0.003842769791901453</v>
+        <v>0.0038</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02520287336162552</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="50">
@@ -4870,13 +4870,13 @@
         <v>46</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.374</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="51">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4571</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="H51" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="52">
@@ -4930,13 +4930,13 @@
         <v>29</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2685</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1849341621868319</v>
+        <v>0.1849</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3521028748502052</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="53">
@@ -4960,13 +4960,13 @@
         <v>76</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.3619</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2969100019306258</v>
+        <v>0.2969</v>
       </c>
       <c r="H53" t="n">
-        <v>0.426899521878898</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="54">
@@ -4990,13 +4990,13 @@
         <v>94</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3468634686346864</v>
+        <v>0.3469</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2901945775003537</v>
+        <v>0.2902</v>
       </c>
       <c r="H54" t="n">
-        <v>0.403532359769019</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="55">
@@ -5020,13 +5020,13 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0639269406392694</v>
+        <v>0.0639</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03152859255409078</v>
+        <v>0.0315</v>
       </c>
       <c r="H55" t="n">
-        <v>0.09632528872444802</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="56">
@@ -5050,13 +5050,13 @@
         <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.0473</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0246980837557352</v>
+        <v>0.0247</v>
       </c>
       <c r="H56" t="n">
-        <v>0.06997647245728254</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="57">
@@ -5080,13 +5080,13 @@
         <v>25</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05411255411255411</v>
+        <v>0.0541</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03348271454943509</v>
+        <v>0.0335</v>
       </c>
       <c r="H57" t="n">
-        <v>0.07474239367567313</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="58">
@@ -5110,13 +5110,13 @@
         <v>69</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.1608</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1260745038671384</v>
+        <v>0.126</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1956038178111832</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="59">
@@ -5140,13 +5140,13 @@
         <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07467532467532467</v>
+        <v>0.0747</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04531854832283559</v>
+        <v>0.0453</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1040321010278138</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="60">
@@ -5170,13 +5170,13 @@
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05025125628140704</v>
+        <v>0.0503</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01989841307387907</v>
+        <v>0.0199</v>
       </c>
       <c r="H60" t="n">
-        <v>0.080604099488935</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5200,13 +5200,13 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.0161</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0004508583094761202</v>
+        <v>0.0004</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03180720620665291</v>
+        <v>0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -5291,13 +5291,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0147</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.005524641353770128</v>
+        <v>-0.0055</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03493640605965248</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="3">
@@ -5321,13 +5321,13 @@
         <v>97</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2930513595166163</v>
+        <v>0.2931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2440170689576247</v>
+        <v>0.2441</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3420856500756079</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="4">
@@ -5351,13 +5351,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.1844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1203861035355593</v>
+        <v>0.1204</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2484082227055754</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="5">
@@ -5381,13 +5381,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0603</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02970344352618915</v>
+        <v>0.0297</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09098621164622464</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5411,13 +5411,13 @@
         <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.1184</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08593466990393218</v>
+        <v>0.0859</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1509074353592257</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="7">
@@ -5441,13 +5441,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05759162303664921</v>
+        <v>0.0576</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02455233841287974</v>
+        <v>0.0246</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09063090766041869</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="8">
@@ -5471,13 +5471,13 @@
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0345821325648415</v>
+        <v>0.0346</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01535710791230815</v>
+        <v>0.0154</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05380715721737485</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="9">
@@ -5501,13 +5501,13 @@
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09792284866468842</v>
+        <v>0.0979</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06619088111733341</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1296548162120434</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="10">
@@ -5531,13 +5531,13 @@
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2685</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1849341621868319</v>
+        <v>0.1849</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3521028748502052</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="11">
@@ -5561,13 +5561,13 @@
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02049180327868852</v>
+        <v>0.0205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00271526042394666</v>
+        <v>0.0027</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03826834613343039</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="12">
@@ -5591,13 +5591,13 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.0462</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01670461907654768</v>
+        <v>0.0167</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07560307323114462</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="13">
@@ -5621,13 +5621,13 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05573770491803279</v>
+        <v>0.0557</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="14">
@@ -5651,13 +5651,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.0592</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="15">
@@ -5681,13 +5681,13 @@
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0492</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="16">
@@ -5711,13 +5711,13 @@
         <v>227</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1810207336523126</v>
+        <v>0.181</v>
       </c>
       <c r="G16" t="n">
-        <v>0.159709924653392</v>
+        <v>0.1597</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2023315426512332</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="17">
@@ -5741,13 +5741,13 @@
         <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04420549581839905</v>
+        <v>0.0442</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03028015736117892</v>
+        <v>0.0303</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05813083427561918</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="18">
@@ -5771,13 +5771,13 @@
         <v>29</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04154727793696275</v>
+        <v>0.0415</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02674334820826102</v>
+        <v>0.0267</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05635120766566448</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="19">
@@ -5801,13 +5801,13 @@
         <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>0.176678445229682</v>
+        <v>0.1767</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1322428092419637</v>
+        <v>0.1323</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2211140812174003</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="20">
@@ -5831,13 +5831,13 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.0135</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="21">
@@ -5861,13 +5861,13 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0037</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="22">
@@ -5891,13 +5891,13 @@
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.0582</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="23">
@@ -5921,13 +5921,13 @@
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.0515</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="24">
@@ -5951,13 +5951,13 @@
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02214022140221402</v>
+        <v>0.0221</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="25">
@@ -5981,13 +5981,13 @@
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05429864253393665</v>
+        <v>0.0543</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="26">
@@ -6011,13 +6011,13 @@
         <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.0278</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="27">
@@ -6041,13 +6041,13 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.0113</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="28">
@@ -6071,13 +6071,13 @@
         <v>41</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1952</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="29">
@@ -6104,10 +6104,10 @@
         <v>0.25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1860276369650646</v>
+        <v>0.186</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3139723630349354</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="30">
@@ -6131,13 +6131,13 @@
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0622568093385214</v>
+        <v>0.0623</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="31">
@@ -6161,13 +6161,13 @@
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.0708</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="32">
@@ -6191,13 +6191,13 @@
         <v>50</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1515</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1128302764122747</v>
+        <v>0.1128</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1902000266180283</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="33">
@@ -6221,13 +6221,13 @@
         <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04153354632587859</v>
+        <v>0.0415</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01942990176752903</v>
+        <v>0.0194</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06363719088422816</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="34">
@@ -6251,13 +6251,13 @@
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0541</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="35">
@@ -6281,13 +6281,13 @@
         <v>26</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.0539</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0337</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="36">
@@ -6311,13 +6311,13 @@
         <v>41</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.0854</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="H36" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="37">
@@ -6344,10 +6344,10 @@
         <v>0.11</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="38">
@@ -6371,13 +6371,13 @@
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.0112</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="39">
@@ -6401,13 +6401,13 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.0522</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0145</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -6431,13 +6431,13 @@
         <v>120</v>
       </c>
       <c r="F40" t="n">
-        <v>0.310880829015544</v>
+        <v>0.3109</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="41">
@@ -6461,13 +6461,13 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.0405</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01459697363229948</v>
+        <v>0.0146</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06648410744878161</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="42">
@@ -6491,13 +6491,13 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01452282157676349</v>
+        <v>0.0145</v>
       </c>
       <c r="G42" t="n">
-        <v>0.003842769791901453</v>
+        <v>0.0038</v>
       </c>
       <c r="H42" t="n">
-        <v>0.02520287336162552</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="43">
@@ -6521,13 +6521,13 @@
         <v>46</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.374</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="44">
@@ -6551,13 +6551,13 @@
         <v>128</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4571</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="H44" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="45">
@@ -6581,13 +6581,13 @@
         <v>76</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.3619</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2969100019306258</v>
+        <v>0.2969</v>
       </c>
       <c r="H45" t="n">
-        <v>0.426899521878898</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="46">
@@ -6611,13 +6611,13 @@
         <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0639269406392694</v>
+        <v>0.0639</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03152859255409078</v>
+        <v>0.0315</v>
       </c>
       <c r="H46" t="n">
-        <v>0.09632528872444802</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="47">
@@ -6641,13 +6641,13 @@
         <v>16</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.0473</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0246980837557352</v>
+        <v>0.0247</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06997647245728254</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="48">
@@ -6671,13 +6671,13 @@
         <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07467532467532467</v>
+        <v>0.0747</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04531854832283559</v>
+        <v>0.0453</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1040321010278138</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="49">
@@ -6701,13 +6701,13 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02159827213822894</v>
+        <v>0.0216</v>
       </c>
       <c r="G49" t="n">
-        <v>0.008357122135748974</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0348394221407089</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="50">
@@ -6731,13 +6731,13 @@
         <v>24</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2222</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1438147014689978</v>
+        <v>0.1438</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3006297429754466</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="51">
@@ -6761,13 +6761,13 @@
         <v>22</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1222</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07437252244273455</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1700719220017099</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="52">
@@ -6791,13 +6791,13 @@
         <v>24</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07384615384615385</v>
+        <v>0.0738</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04541385873574227</v>
+        <v>0.0454</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1022784489565654</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="53">
@@ -6821,13 +6821,13 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07798165137614679</v>
+        <v>0.078</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04238691014589973</v>
+        <v>0.0424</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1135763926063939</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="54">
@@ -6851,13 +6851,13 @@
         <v>145</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1172190784155214</v>
+        <v>0.1172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09929285264222665</v>
+        <v>0.0993</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1351453041888162</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="55">
@@ -6881,13 +6881,13 @@
         <v>125</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3026634382566586</v>
+        <v>0.3027</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2583562425085045</v>
+        <v>0.2584</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3469706340048127</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="56">
@@ -6911,13 +6911,13 @@
         <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05025125628140704</v>
+        <v>0.0503</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01989841307387907</v>
+        <v>0.0199</v>
       </c>
       <c r="H56" t="n">
-        <v>0.080604099488935</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -6941,13 +6941,13 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.0161</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0004508583094761202</v>
+        <v>0.0004</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03180720620665291</v>
+        <v>0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -7032,13 +7032,13 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02049180327868852</v>
+        <v>0.0205</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00271526042394666</v>
+        <v>0.0027</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03826834613343039</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="3">
@@ -7062,13 +7062,13 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.0462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01670461907654768</v>
+        <v>0.0167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07560307323114462</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="4">
@@ -7092,13 +7092,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0147</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.005524641353770128</v>
+        <v>-0.0055</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03493640605965248</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="5">
@@ -7122,13 +7122,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05573770491803279</v>
+        <v>0.0557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="6">
@@ -7152,13 +7152,13 @@
         <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.0592</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="7">
@@ -7182,13 +7182,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0492</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="8">
@@ -7212,13 +7212,13 @@
         <v>227</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1810207336523126</v>
+        <v>0.181</v>
       </c>
       <c r="G8" t="n">
-        <v>0.159709924653392</v>
+        <v>0.1597</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2023315426512332</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="9">
@@ -7242,13 +7242,13 @@
         <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04420549581839905</v>
+        <v>0.0442</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03028015736117892</v>
+        <v>0.0303</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05813083427561918</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="10">
@@ -7272,13 +7272,13 @@
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04154727793696275</v>
+        <v>0.0415</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02674334820826102</v>
+        <v>0.0267</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05635120766566448</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="11">
@@ -7302,13 +7302,13 @@
         <v>145</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1172190784155214</v>
+        <v>0.1172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09929285264222665</v>
+        <v>0.0993</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1351453041888162</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="12">
@@ -7332,13 +7332,13 @@
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>0.176678445229682</v>
+        <v>0.1767</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1322428092419637</v>
+        <v>0.1323</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2211140812174003</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="13">
@@ -7362,13 +7362,13 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.0135</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="14">
@@ -7392,13 +7392,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0037</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="15">
@@ -7422,13 +7422,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.0582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="16">
@@ -7452,13 +7452,13 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.0515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="17">
@@ -7482,13 +7482,13 @@
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02214022140221402</v>
+        <v>0.0221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="18">
@@ -7512,13 +7512,13 @@
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01433875687403752</v>
+        <v>0.0143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07455013201485138</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="19">
@@ -7542,13 +7542,13 @@
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05429864253393665</v>
+        <v>0.0543</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="20">
@@ -7572,13 +7572,13 @@
         <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.0278</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="21">
@@ -7602,13 +7602,13 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.0113</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="22">
@@ -7632,13 +7632,13 @@
         <v>97</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2930513595166163</v>
+        <v>0.2931</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2440170689576247</v>
+        <v>0.2441</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3420856500756079</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="23">
@@ -7662,13 +7662,13 @@
         <v>41</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1952</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="24">
@@ -7692,13 +7692,13 @@
         <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.1844</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1203861035355593</v>
+        <v>0.1204</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2484082227055754</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="25">
@@ -7722,13 +7722,13 @@
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0622568093385214</v>
+        <v>0.0623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="26">
@@ -7752,13 +7752,13 @@
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0603</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02970344352618915</v>
+        <v>0.0297</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09098621164622464</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -7782,13 +7782,13 @@
         <v>45</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.1184</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08593466990393218</v>
+        <v>0.0859</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1509074353592257</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="28">
@@ -7812,13 +7812,13 @@
         <v>24</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2222</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1438147014689978</v>
+        <v>0.1438</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3006297429754466</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="29">
@@ -7842,13 +7842,13 @@
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1222</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07437252244273455</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1700719220017099</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
@@ -7872,13 +7872,13 @@
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.0708</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="31">
@@ -7902,13 +7902,13 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07798165137614679</v>
+        <v>0.078</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04238691014589973</v>
+        <v>0.0424</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1135763926063939</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="32">
@@ -7932,13 +7932,13 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05759162303664921</v>
+        <v>0.0576</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02455233841287974</v>
+        <v>0.0246</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09063090766041869</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="33">
@@ -7962,13 +7962,13 @@
         <v>50</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1515</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1128302764122747</v>
+        <v>0.1128</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1902000266180283</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="34">
@@ -7992,13 +7992,13 @@
         <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04153354632587859</v>
+        <v>0.0415</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01942990176752903</v>
+        <v>0.0194</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06363719088422816</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="35">
@@ -8022,13 +8022,13 @@
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0541</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="36">
@@ -8052,13 +8052,13 @@
         <v>26</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.0539</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0337</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="37">
@@ -8082,13 +8082,13 @@
         <v>41</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.0854</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="H37" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="38">
@@ -8115,10 +8115,10 @@
         <v>0.11</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="39">
@@ -8142,13 +8142,13 @@
         <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.0112</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="40">
@@ -8172,13 +8172,13 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.0522</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0145</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -8202,13 +8202,13 @@
         <v>120</v>
       </c>
       <c r="F41" t="n">
-        <v>0.310880829015544</v>
+        <v>0.3109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="42">
@@ -8232,13 +8232,13 @@
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0345821325648415</v>
+        <v>0.0346</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01535710791230815</v>
+        <v>0.0154</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05380715721737485</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="43">
@@ -8262,13 +8262,13 @@
         <v>33</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09792284866468842</v>
+        <v>0.0979</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06619088111733341</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1296548162120434</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="44">
@@ -8292,13 +8292,13 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.0405</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01459697363229948</v>
+        <v>0.0146</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06648410744878161</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="45">
@@ -8322,13 +8322,13 @@
         <v>46</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.374</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="46">
@@ -8352,13 +8352,13 @@
         <v>128</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4571</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="H46" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="47">
@@ -8382,13 +8382,13 @@
         <v>29</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1849341621868319</v>
+        <v>0.1849</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3521028748502052</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="48">
@@ -8412,13 +8412,13 @@
         <v>94</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3468634686346864</v>
+        <v>0.3469</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2901945775003537</v>
+        <v>0.2902</v>
       </c>
       <c r="H48" t="n">
-        <v>0.403532359769019</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="49">
@@ -8442,13 +8442,13 @@
         <v>14</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0639269406392694</v>
+        <v>0.0639</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03152859255409078</v>
+        <v>0.0315</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09632528872444802</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="50">
@@ -8472,13 +8472,13 @@
         <v>16</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.0473</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0246980837557352</v>
+        <v>0.0247</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06997647245728254</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="51">
@@ -8502,13 +8502,13 @@
         <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05411255411255411</v>
+        <v>0.0541</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03348271454943509</v>
+        <v>0.0335</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07474239367567313</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="52">
@@ -8532,13 +8532,13 @@
         <v>69</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.1608</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1260745038671384</v>
+        <v>0.126</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1956038178111832</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="53">
@@ -8562,13 +8562,13 @@
         <v>23</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07467532467532467</v>
+        <v>0.0747</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04531854832283559</v>
+        <v>0.0453</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1040321010278138</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="54">
@@ -8592,13 +8592,13 @@
         <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05025125628140704</v>
+        <v>0.0503</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01989841307387907</v>
+        <v>0.0199</v>
       </c>
       <c r="H54" t="n">
-        <v>0.080604099488935</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -8622,13 +8622,13 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.0161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0004508583094761202</v>
+        <v>0.0004</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03180720620665291</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="56">
@@ -8652,13 +8652,13 @@
         <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02159827213822894</v>
+        <v>0.0216</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008357122135748974</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0348394221407089</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="57">
@@ -8685,10 +8685,10 @@
         <v>0.25</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1860276369650646</v>
+        <v>0.186</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3139723630349354</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="58">
@@ -8712,13 +8712,13 @@
         <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07384615384615385</v>
+        <v>0.0738</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04541385873574227</v>
+        <v>0.0454</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1022784489565654</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="59">
@@ -8742,13 +8742,13 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01452282157676349</v>
+        <v>0.0145</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003842769791901453</v>
+        <v>0.0038</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02520287336162552</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="60">
@@ -8772,13 +8772,13 @@
         <v>76</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.3619</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2969100019306258</v>
+        <v>0.2969</v>
       </c>
       <c r="H60" t="n">
-        <v>0.426899521878898</v>
+        <v>0.4269</v>
       </c>
     </row>
   </sheetData>
@@ -8863,13 +8863,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.0462</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01670461907654768</v>
+        <v>0.0167</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07560307323114462</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="3">
@@ -8893,13 +8893,13 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05573770491803279</v>
+        <v>0.0557</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="4">
@@ -8923,13 +8923,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.0592</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="5">
@@ -8953,13 +8953,13 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0492</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="6">
@@ -8983,13 +8983,13 @@
         <v>227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1810207336523126</v>
+        <v>0.181</v>
       </c>
       <c r="G6" t="n">
-        <v>0.159709924653392</v>
+        <v>0.1597</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2023315426512332</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="7">
@@ -9013,13 +9013,13 @@
         <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04420549581839905</v>
+        <v>0.0442</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03028015736117892</v>
+        <v>0.0303</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05813083427561918</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="8">
@@ -9043,13 +9043,13 @@
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04154727793696275</v>
+        <v>0.0415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02674334820826102</v>
+        <v>0.0267</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05635120766566448</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="9">
@@ -9073,13 +9073,13 @@
         <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>0.176678445229682</v>
+        <v>0.1767</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1322428092419637</v>
+        <v>0.1323</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2211140812174003</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="10">
@@ -9103,13 +9103,13 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.0135</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="11">
@@ -9133,13 +9133,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0037</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="12">
@@ -9163,13 +9163,13 @@
         <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.0515</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="13">
@@ -9193,13 +9193,13 @@
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01433875687403752</v>
+        <v>0.0143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07455013201485138</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="14">
@@ -9223,13 +9223,13 @@
         <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.0278</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="15">
@@ -9253,13 +9253,13 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.0113</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="16">
@@ -9283,13 +9283,13 @@
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0622568093385214</v>
+        <v>0.0623</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="17">
@@ -9313,13 +9313,13 @@
         <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1515</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1128302764122747</v>
+        <v>0.1128</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1902000266180283</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="18">
@@ -9343,13 +9343,13 @@
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04153354632587859</v>
+        <v>0.0415</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01942990176752903</v>
+        <v>0.0194</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06363719088422816</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="19">
@@ -9373,13 +9373,13 @@
         <v>120</v>
       </c>
       <c r="F19" t="n">
-        <v>0.310880829015544</v>
+        <v>0.3109</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="20">
@@ -9403,13 +9403,13 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.0405</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01459697363229948</v>
+        <v>0.0146</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06648410744878161</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="21">
@@ -9433,13 +9433,13 @@
         <v>46</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.374</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="22">
@@ -9463,13 +9463,13 @@
         <v>128</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4571</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="H22" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="23">
@@ -9493,13 +9493,13 @@
         <v>94</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3468634686346864</v>
+        <v>0.3469</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2901945775003537</v>
+        <v>0.2902</v>
       </c>
       <c r="H23" t="n">
-        <v>0.403532359769019</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="24">
@@ -9523,13 +9523,13 @@
         <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05411255411255411</v>
+        <v>0.0541</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03348271454943509</v>
+        <v>0.0335</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07474239367567313</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="25">
@@ -9553,13 +9553,13 @@
         <v>69</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.1608</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1260745038671384</v>
+        <v>0.126</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1956038178111832</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="26">
@@ -9583,13 +9583,13 @@
         <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07467532467532467</v>
+        <v>0.0747</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04531854832283559</v>
+        <v>0.0453</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1040321010278138</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="27">
@@ -9613,13 +9613,13 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02049180327868852</v>
+        <v>0.0205</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00271526042394666</v>
+        <v>0.0027</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03826834613343039</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="28">
@@ -9643,13 +9643,13 @@
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.0582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="29">
@@ -9673,13 +9673,13 @@
         <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02214022140221402</v>
+        <v>0.0221</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="30">
@@ -9703,13 +9703,13 @@
         <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05429864253393665</v>
+        <v>0.0543</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="31">
@@ -9733,13 +9733,13 @@
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0541</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="32">
@@ -9763,13 +9763,13 @@
         <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.0539</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0337</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="33">
@@ -9793,13 +9793,13 @@
         <v>41</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.0854</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="H33" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="34">
@@ -9826,10 +9826,10 @@
         <v>0.11</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="35">
@@ -9853,13 +9853,13 @@
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.0112</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="36">
@@ -9883,13 +9883,13 @@
         <v>97</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2930513595166163</v>
+        <v>0.2931</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2440170689576247</v>
+        <v>0.2441</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3420856500756079</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="37">
@@ -9913,13 +9913,13 @@
         <v>16</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.0708</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="38">
@@ -9943,13 +9943,13 @@
         <v>125</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3026634382566586</v>
+        <v>0.3027</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2583562425085045</v>
+        <v>0.2584</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3469706340048127</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="39">
@@ -9973,13 +9973,13 @@
         <v>41</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1952</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="40">
@@ -10003,13 +10003,13 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.0522</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0145</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -10033,13 +10033,13 @@
         <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0639269406392694</v>
+        <v>0.0639</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03152859255409078</v>
+        <v>0.0315</v>
       </c>
       <c r="H41" t="n">
-        <v>0.09632528872444802</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="42">
@@ -10063,13 +10063,13 @@
         <v>16</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.0473</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0246980837557352</v>
+        <v>0.0247</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06997647245728254</v>
+        <v>0.0699</v>
       </c>
     </row>
   </sheetData>
@@ -10164,13 +10164,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.05573770491803279</v>
+        <v>0.0557</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="3">
@@ -10199,13 +10199,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.0592</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="4">
@@ -10234,13 +10234,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0492</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="5">
@@ -10269,13 +10269,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.0812720848056537</v>
+        <v>0.0813</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04943604568284842</v>
+        <v>0.0495</v>
       </c>
       <c r="I5" t="n">
-        <v>0.113108123928459</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="6">
@@ -10304,13 +10304,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.04842615012106537</v>
+        <v>0.0484</v>
       </c>
       <c r="H6" t="n">
-        <v>0.027723102239431</v>
+        <v>0.0277</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06912919800269975</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -10339,13 +10339,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.01346801346801347</v>
+        <v>0.0135</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="8">
@@ -10374,13 +10374,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="9">
@@ -10409,13 +10409,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.05818181818181818</v>
+        <v>0.0582</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="10">
@@ -10444,13 +10444,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.0515</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="11">
@@ -10479,13 +10479,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.02214022140221402</v>
+        <v>0.0221</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="12">
@@ -10514,13 +10514,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.05429864253393665</v>
+        <v>0.0543</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="13">
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.02784810126582278</v>
+        <v>0.0278</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="14">
@@ -10584,13 +10584,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.0113</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="15">
@@ -10619,13 +10619,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1952</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="16">
@@ -10654,13 +10654,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.1844</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1203861035355593</v>
+        <v>0.1204</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2484082227055754</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="17">
@@ -10689,13 +10689,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.0622568093385214</v>
+        <v>0.0623</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="18">
@@ -10724,13 +10724,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0603</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02970344352618915</v>
+        <v>0.0297</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09098621164622464</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -10759,13 +10759,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.1184</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08593466990393218</v>
+        <v>0.0859</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1509074353592257</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="20">
@@ -10794,13 +10794,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2222</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1438147014689978</v>
+        <v>0.1438</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3006297429754466</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="21">
@@ -10829,13 +10829,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.0708</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="22">
@@ -10864,13 +10864,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.05759162303664921</v>
+        <v>0.0576</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02455233841287974</v>
+        <v>0.0246</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09063090766041869</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="23">
@@ -10899,13 +10899,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0541</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="24">
@@ -10934,13 +10934,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.05394190871369295</v>
+        <v>0.0539</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0337</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="25">
@@ -10969,13 +10969,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.0854</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="I25" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="26">
@@ -11007,10 +11007,10 @@
         <v>0.11</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="27">
@@ -11039,13 +11039,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.0112</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="28">
@@ -11074,13 +11074,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.310880829015544</v>
+        <v>0.3109</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="29">
@@ -11109,13 +11109,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.02881844380403458</v>
+        <v>0.0288</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01121616768594204</v>
+        <v>0.0112</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04642071992212712</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="30">
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.05341246290801187</v>
+        <v>0.0534</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02940563198523951</v>
+        <v>0.0294</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07741929383078423</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="31">
@@ -11179,13 +11179,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.374</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="32">
@@ -11214,13 +11214,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4571</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="I32" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="33">
@@ -11249,13 +11249,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2685</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1849341621868319</v>
+        <v>0.1849</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3521028748502052</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="34">
@@ -11284,13 +11284,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.3619</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2969100019306258</v>
+        <v>0.2969</v>
       </c>
       <c r="I34" t="n">
-        <v>0.426899521878898</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="35">
@@ -11319,13 +11319,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3468634686346864</v>
+        <v>0.3469</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2901945775003537</v>
+        <v>0.2902</v>
       </c>
       <c r="I35" t="n">
-        <v>0.403532359769019</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="36">
@@ -11354,13 +11354,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.03263403263403263</v>
+        <v>0.0326</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0158208388352613</v>
+        <v>0.0158</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04944722643280397</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="37">
@@ -11389,13 +11389,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.06168831168831169</v>
+        <v>0.0617</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03481954463369797</v>
+        <v>0.0348</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0885570787429254</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="38">
@@ -11424,13 +11424,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.05025125628140704</v>
+        <v>0.0503</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01989841307387907</v>
+        <v>0.0199</v>
       </c>
       <c r="I38" t="n">
-        <v>0.080604099488935</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -11459,13 +11459,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.0161</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0004508583094761202</v>
+        <v>0.0004</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03180720620665291</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="40">
@@ -11494,13 +11494,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.2542</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2122427294852917</v>
+        <v>0.2122</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2962318467858947</v>
+        <v>0.2962</v>
       </c>
     </row>
     <row r="41">
@@ -11529,13 +11529,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01433875687403752</v>
+        <v>0.0143</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07455013201485138</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="42">
@@ -11564,13 +11564,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.07798165137614679</v>
+        <v>0.078</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04238691014589973</v>
+        <v>0.0424</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1135763926063939</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="43">
@@ -11599,13 +11599,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.0228310502283105</v>
+        <v>0.0228</v>
       </c>
       <c r="H43" t="n">
-        <v>0.003048885789620589</v>
+        <v>0.003</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04261321466700041</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="44">
@@ -11634,13 +11634,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.02071005917159763</v>
+        <v>0.0207</v>
       </c>
       <c r="H44" t="n">
-        <v>0.005527812003313658</v>
+        <v>0.0055</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03589230633988161</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="45">
@@ -11669,13 +11669,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1282</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09656929343650741</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>0.159840962973749</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="46">
@@ -11704,13 +11704,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0147</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.005524641353770128</v>
+        <v>-0.0055</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03493640605965248</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="47">
@@ -11739,13 +11739,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.02159827213822894</v>
+        <v>0.0216</v>
       </c>
       <c r="H47" t="n">
-        <v>0.008357122135748974</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0348394221407089</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="48">
@@ -11772,13 +11772,13 @@
         <v>20</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04240282685512368</v>
+        <v>0.0424</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01892576705427599</v>
+        <v>0.0189</v>
       </c>
       <c r="I48" t="n">
-        <v>0.06587988665597137</v>
+        <v>0.0659</v>
       </c>
     </row>
     <row r="49">
@@ -11805,13 +11805,13 @@
         <v>-1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.002164502164502165</v>
+        <v>0.0022</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.00207325035136739</v>
+        <v>-0.0021</v>
       </c>
       <c r="I49" t="n">
-        <v>0.006402254680371719</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="50">
@@ -11840,13 +11840,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.013</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0003428873142535902</v>
+        <v>0.0003</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02563113865977239</v>
+        <v>0.0257</v>
       </c>
     </row>
     <row r="51">
@@ -11873,13 +11873,13 @@
         <v>-1</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03886925795053003</v>
+        <v>0.0389</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01635025113647789</v>
+        <v>0.0164</v>
       </c>
       <c r="I51" t="n">
-        <v>0.06138826476458218</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="52">
@@ -11908,13 +11908,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.0522</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0145</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -11943,13 +11943,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.005763688760806916</v>
+        <v>0.0058</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.002201176331829265</v>
+        <v>-0.0022</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0137285538534431</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="54">
@@ -11978,13 +11978,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.04451038575667656</v>
+        <v>0.0445</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02249243961335152</v>
+        <v>0.0225</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0665283319000016</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="55">
@@ -12013,13 +12013,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.03246753246753246</v>
+        <v>0.0325</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01630592632671209</v>
+        <v>0.0163</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04862913860835284</v>
+        <v>0.0487</v>
       </c>
     </row>
     <row r="56">
@@ -12048,13 +12048,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.01413427561837456</v>
+        <v>0.0141</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0003811777008706791</v>
+        <v>0.0004</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02788737353587844</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="57">
@@ -12083,13 +12083,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.0182648401826484</v>
+        <v>0.0183</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0005298421601981525</v>
+        <v>0.0005</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03599983820509865</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="58">
@@ -12116,13 +12116,13 @@
         <v>-1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0228310502283105</v>
+        <v>0.0228</v>
       </c>
       <c r="H58" t="n">
-        <v>0.003048885789620589</v>
+        <v>0.003</v>
       </c>
       <c r="I58" t="n">
-        <v>0.04261321466700041</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="59">
@@ -12151,13 +12151,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.02662721893491124</v>
+        <v>0.0266</v>
       </c>
       <c r="H59" t="n">
-        <v>0.009464256801719327</v>
+        <v>0.0094</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04379018106810316</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="60">
@@ -12186,13 +12186,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.01948051948051948</v>
+        <v>0.0195</v>
       </c>
       <c r="H60" t="n">
-        <v>0.006878054961126612</v>
+        <v>0.0069</v>
       </c>
       <c r="I60" t="n">
-        <v>0.03208298399991235</v>
+        <v>0.0321</v>
       </c>
     </row>
   </sheetData>
@@ -12300,10 +12300,10 @@
         <v>0.2542372881355932</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2122427294852917</v>
+        <v>0.2122</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2962318467858947</v>
+        <v>0.2962</v>
       </c>
     </row>
     <row r="3">
@@ -12340,10 +12340,10 @@
         <v>0.04444444444444445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01433875687403752</v>
+        <v>0.0143</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07455013201485138</v>
+        <v>0.0746</v>
       </c>
     </row>
     <row r="4">
@@ -12380,10 +12380,10 @@
         <v>0.07798165137614679</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04238691014589973</v>
+        <v>0.0424</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1135763926063939</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="5">
@@ -12420,10 +12420,10 @@
         <v>0.0228310502283105</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003048885789620589</v>
+        <v>0.003</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04261321466700041</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="6">
@@ -12460,10 +12460,10 @@
         <v>0.02071005917159763</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005527812003313658</v>
+        <v>0.0055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03589230633988161</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="7">
@@ -12500,10 +12500,10 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09656929343650741</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.159840962973749</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="8">
@@ -12540,10 +12540,10 @@
         <v>0.01413427561837456</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003811777008706791</v>
+        <v>0.0004</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02788737353587844</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="9">
@@ -12578,10 +12578,10 @@
         <v>0.03886925795053003</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01635025113647789</v>
+        <v>0.0164</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06138826476458218</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="10">
@@ -12618,10 +12618,10 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01456480245548031</v>
+        <v>0.0146</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0899128094848182</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -12658,10 +12658,10 @@
         <v>0.005763688760806916</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.002201176331829265</v>
+        <v>-0.0022</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0137285538534431</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="12">
@@ -12698,10 +12698,10 @@
         <v>0.04451038575667656</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02249243961335152</v>
+        <v>0.0225</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0665283319000016</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="13">
@@ -12738,10 +12738,10 @@
         <v>0.03246753246753246</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01630592632671209</v>
+        <v>0.0163</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04862913860835284</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="14">
@@ -12778,10 +12778,10 @@
         <v>0.05573770491803279</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02999115526676948</v>
+        <v>0.03</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08148425456929609</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="15">
@@ -12818,10 +12818,10 @@
         <v>0.05921052631578947</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03267932074078826</v>
+        <v>0.0327</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08574173189079068</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="16">
@@ -12858,10 +12858,10 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02491182639284338</v>
+        <v>0.0249</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07344882934486154</v>
+        <v>0.07340000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -12898,10 +12898,10 @@
         <v>0.0812720848056537</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04943604568284842</v>
+        <v>0.0494</v>
       </c>
       <c r="J17" t="n">
-        <v>0.113108123928459</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="18">
@@ -12938,10 +12938,10 @@
         <v>0.04842615012106537</v>
       </c>
       <c r="I18" t="n">
-        <v>0.027723102239431</v>
+        <v>0.0277</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06912919800269975</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -12978,10 +12978,10 @@
         <v>0.01346801346801347</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003587822694917451</v>
+        <v>0.0004</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02657724466653519</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="20">
@@ -13018,10 +13018,10 @@
         <v>0.009615384615384616</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.003646391643263365</v>
+        <v>-0.0036</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0228771608740326</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="21">
@@ -13058,10 +13058,10 @@
         <v>0.05818181818181818</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03051501862733974</v>
+        <v>0.0305</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08584861773629662</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="22">
@@ -13098,10 +13098,10 @@
         <v>0.05154639175257732</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02614200135277477</v>
+        <v>0.0261</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07695078215237987</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="23">
@@ -13138,10 +13138,10 @@
         <v>0.02214022140221402</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004621890845510915</v>
+        <v>0.0046</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03965855195891713</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="24">
@@ -13178,10 +13178,10 @@
         <v>0.05429864253393665</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02442257403040016</v>
+        <v>0.0244</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08417471103747315</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="25">
@@ -13218,10 +13218,10 @@
         <v>0.02784810126582278</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01162199176932949</v>
+        <v>0.0116</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04407421076231607</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="26">
@@ -13258,10 +13258,10 @@
         <v>0.01129943502824859</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.004271769659228998</v>
+        <v>-0.0043</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02687063971572617</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="27">
@@ -13298,10 +13298,10 @@
         <v>0.1952380952380952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1416270308696479</v>
+        <v>0.1416</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2488491596065426</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="28">
@@ -13338,10 +13338,10 @@
         <v>0.1843971631205674</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1203861035355593</v>
+        <v>0.1204</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2484082227055754</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="29">
@@ -13378,10 +13378,10 @@
         <v>0.0622568093385214</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03271637213618983</v>
+        <v>0.0327</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09179724654085297</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -13418,10 +13418,10 @@
         <v>0.0603448275862069</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02970344352618915</v>
+        <v>0.0297</v>
       </c>
       <c r="J30" t="n">
-        <v>0.09098621164622464</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="31">
@@ -13458,10 +13458,10 @@
         <v>0.1184210526315789</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08593466990393218</v>
+        <v>0.0859</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1509074353592257</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="32">
@@ -13498,10 +13498,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1438147014689978</v>
+        <v>0.1438</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3006297429754466</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="33">
@@ -13538,10 +13538,10 @@
         <v>0.07079646017699115</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03735732237699155</v>
+        <v>0.0374</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1042355979769908</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="34">
@@ -13578,10 +13578,10 @@
         <v>0.05759162303664921</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02455233841287974</v>
+        <v>0.0246</v>
       </c>
       <c r="J34" t="n">
-        <v>0.09063090766041869</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="35">
@@ -13618,10 +13618,10 @@
         <v>0.05405405405405406</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02829383620587882</v>
+        <v>0.0283</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07981427190222928</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="36">
@@ -13658,10 +13658,10 @@
         <v>0.05394190871369295</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03377466117524844</v>
+        <v>0.0338</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07410915625213746</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="37">
@@ -13698,10 +13698,10 @@
         <v>0.08541666666666667</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06041261293830533</v>
+        <v>0.0604</v>
       </c>
       <c r="J37" t="n">
-        <v>0.110420720395028</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="38">
@@ -13738,10 +13738,10 @@
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07459384147044684</v>
+        <v>0.0746</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1454061585295532</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="39">
@@ -13778,10 +13778,10 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.001406860139887871</v>
+        <v>-0.0014</v>
       </c>
       <c r="J39" t="n">
-        <v>0.02387877025224742</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="40">
@@ -13818,10 +13818,10 @@
         <v>0.310880829015544</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2647067145364088</v>
+        <v>0.2647</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3570549434946793</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="41">
@@ -13858,10 +13858,10 @@
         <v>0.02881844380403458</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01121616768594204</v>
+        <v>0.0112</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04642071992212712</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="42">
@@ -13898,10 +13898,10 @@
         <v>0.05341246290801187</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02940563198523951</v>
+        <v>0.0294</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07741929383078423</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="43">
@@ -13938,10 +13938,10 @@
         <v>0.3739837398373984</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2884741738195591</v>
+        <v>0.2885</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4594933058552376</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="44">
@@ -13978,10 +13978,10 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3987932652578092</v>
+        <v>0.3988</v>
       </c>
       <c r="J44" t="n">
-        <v>0.515492449027905</v>
+        <v>0.5155</v>
       </c>
     </row>
     <row r="45">
@@ -14018,10 +14018,10 @@
         <v>0.2685185185185185</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1849341621868319</v>
+        <v>0.1849</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3521028748502052</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="46">
@@ -14058,10 +14058,10 @@
         <v>0.3619047619047619</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2969100019306258</v>
+        <v>0.2969</v>
       </c>
       <c r="J46" t="n">
-        <v>0.426899521878898</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="47">
@@ -14098,10 +14098,10 @@
         <v>0.3468634686346864</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2901945775003537</v>
+        <v>0.2902</v>
       </c>
       <c r="J47" t="n">
-        <v>0.403532359769019</v>
+        <v>0.4035</v>
       </c>
     </row>
     <row r="48">
@@ -14138,10 +14138,10 @@
         <v>0.03263403263403263</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0158208388352613</v>
+        <v>0.0158</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04944722643280397</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="49">
@@ -14178,10 +14178,10 @@
         <v>0.06168831168831169</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03481954463369797</v>
+        <v>0.0348</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0885570787429254</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="50">
@@ -14218,10 +14218,10 @@
         <v>0.05025125628140704</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01989841307387907</v>
+        <v>0.0199</v>
       </c>
       <c r="J50" t="n">
-        <v>0.080604099488935</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="51">
@@ -14258,10 +14258,10 @@
         <v>0.01612903225806452</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0004508583094761202</v>
+        <v>0.0005</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03180720620665291</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="52">
@@ -14296,10 +14296,10 @@
         <v>0.0228310502283105</v>
       </c>
       <c r="I52" t="n">
-        <v>0.003048885789620589</v>
+        <v>0.003</v>
       </c>
       <c r="J52" t="n">
-        <v>0.04261321466700041</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="53">
@@ -14336,10 +14336,10 @@
         <v>0.02662721893491124</v>
       </c>
       <c r="I53" t="n">
-        <v>0.009464256801719327</v>
+        <v>0.0095</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04379018106810316</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="54">
@@ -14376,10 +14376,10 @@
         <v>0.01948051948051948</v>
       </c>
       <c r="I54" t="n">
-        <v>0.006878054961126612</v>
+        <v>0.0069</v>
       </c>
       <c r="J54" t="n">
-        <v>0.03208298399991235</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="55">
@@ -14416,10 +14416,10 @@
         <v>0.01470588235294118</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.005524641353770128</v>
+        <v>-0.0055</v>
       </c>
       <c r="J55" t="n">
-        <v>0.03493640605965248</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="56">
@@ -14456,10 +14456,10 @@
         <v>0.02159827213822894</v>
       </c>
       <c r="I56" t="n">
-        <v>0.008357122135748974</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0348394221407089</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="57">
@@ -14494,10 +14494,10 @@
         <v>0.04240282685512368</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01892576705427599</v>
+        <v>0.0189</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06587988665597137</v>
+        <v>0.0659</v>
       </c>
     </row>
     <row r="58">
@@ -14532,10 +14532,10 @@
         <v>0.002164502164502165</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.00207325035136739</v>
+        <v>-0.0021</v>
       </c>
       <c r="J58" t="n">
-        <v>0.006402254680371719</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="59">
@@ -14572,10 +14572,10 @@
         <v>0.01298701298701299</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0003428873142535902</v>
+        <v>0.0003</v>
       </c>
       <c r="J59" t="n">
-        <v>0.02563113865977239</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="60">
@@ -14612,10 +14612,10 @@
         <v>0.0182648401826484</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0005298421601981525</v>
+        <v>0.0005</v>
       </c>
       <c r="J60" t="n">
-        <v>0.03599983820509865</v>
+        <v>0.036</v>
       </c>
     </row>
   </sheetData>

--- a/results/raw_proportions.xlsx
+++ b/results/raw_proportions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,625 +1355,575 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Park2022a</t>
+          <t>McIlroy2021a</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1515</v>
+        <v>0.0541</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01973673317354309</v>
+        <v>0.01314847514537897</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1128</v>
+        <v>0.0283</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1902</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Park2022b</t>
+          <t>Boekhorst2021a</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0415</v>
+        <v>0.0539</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01127321885083342</v>
+        <v>0.01028583100687906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0194</v>
+        <v>0.0337</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0636</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>McIlroy2021a</t>
+          <t>Boekhorst2021b</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0541</v>
+        <v>0.0854</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01314847514537897</v>
+        <v>0.01275627623302872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0283</v>
+        <v>0.0604</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0799</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Boekhorst2021a</t>
+          <t>Boekhorst2021c</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0539</v>
+        <v>0.11</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01028583100687906</v>
+        <v>0.01806469853978564</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0337</v>
+        <v>0.0746</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0741</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Boekhorst2021b</t>
+          <t>Boekhorst2021d</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>480</v>
+        <v>267</v>
       </c>
       <c r="C41" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0854</v>
+        <v>0.0112</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01275627623302872</v>
+        <v>0.006440322414987372</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0604</v>
+        <v>-0.0014</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1104</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Boekhorst2021c</t>
+          <t>Strauss2017a</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11</v>
+        <v>0.0522</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01806469853978564</v>
+        <v>0.0192150360900077</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0746</v>
+        <v>0.0145</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1454</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Boekhorst2021d</t>
+          <t>Burns2014a</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0112</v>
+        <v>0.3109</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006440322414987372</v>
+        <v>0.02355905324153128</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0014</v>
+        <v>0.2647</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0238</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Strauss2017a</t>
+          <t>Golubovich2021a</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0522</v>
+        <v>0.0346</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0192150360900077</v>
+        <v>0.009811309124857694</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0145</v>
+        <v>0.0154</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Burns2014a</t>
+          <t>Golubovich2021b</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="C45" t="n">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3109</v>
+        <v>0.0979</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02355905324153128</v>
+        <v>0.01618839291844311</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2647</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3571</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Golubovich2021a</t>
+          <t>Kim2022a</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0346</v>
+        <v>0.0405</v>
       </c>
       <c r="E46" t="n">
-        <v>0.009811309124857694</v>
+        <v>0.01323041643029118</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0154</v>
+        <v>0.0146</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0538</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Golubovich2021b</t>
+          <t>Folger2022a</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>337</v>
+        <v>482</v>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0979</v>
+        <v>0.0145</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01618839291844311</v>
+        <v>0.005444886062385985</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0038</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1296</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kim2022a</t>
+          <t>Reb2018a</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0405</v>
+        <v>0.374</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01323041643029118</v>
+        <v>0.04362851309031222</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0146</v>
+        <v>0.2885</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0664</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Folger2022a</t>
+          <t>Reb2018b</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>482</v>
+        <v>280</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0145</v>
+        <v>0.4571</v>
       </c>
       <c r="E49" t="n">
-        <v>0.005444886062385985</v>
+        <v>0.0297705265321257</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0038</v>
+        <v>0.3988</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0252</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Reb2018a</t>
+          <t>Reb2018c</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C50" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>0.374</v>
+        <v>0.2685</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04362851309031222</v>
+        <v>0.04264493261546767</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2885</v>
+        <v>0.1849</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4595</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Reb2018b</t>
+          <t>Reb2018d</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="C51" t="n">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4571</v>
+        <v>0.3619</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0297705265321257</v>
+        <v>0.03316110673665763</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3988</v>
+        <v>0.2969</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5154</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Reb2018c</t>
+          <t>Reb2018e</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2685</v>
+        <v>0.3469</v>
       </c>
       <c r="E52" t="n">
-        <v>0.04264493261546767</v>
+        <v>0.0289139447198405</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1849</v>
+        <v>0.2902</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3521</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Reb2018d</t>
+          <t>Richter2017a</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C53" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3619</v>
+        <v>0.0639</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03316110673665763</v>
+        <v>0.01652682750552145</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2969</v>
+        <v>0.0315</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4269</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Reb2018e</t>
+          <t>Richter2018a</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="C54" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3469</v>
+        <v>0.0473</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0289139447198405</v>
+        <v>0.01154649848304389</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2902</v>
+        <v>0.0247</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4036</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Richter2017a</t>
+          <t>Merritt2020a</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>219</v>
+        <v>462</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0639</v>
+        <v>0.0541</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01652682750552145</v>
+        <v>0.01052447055768035</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0315</v>
+        <v>0.0335</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0963</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Richter2018a</t>
+          <t>Noble2021a</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>338</v>
+        <v>429</v>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0473</v>
+        <v>0.1608</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01154649848304389</v>
+        <v>0.01773565016325273</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0247</v>
+        <v>0.126</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0699</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Merritt2020a</t>
+          <t>Vance2020a</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0541</v>
+        <v>0.0747</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01052447055768035</v>
+        <v>0.01498049706143932</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0335</v>
+        <v>0.0453</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0747</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Noble2021a</t>
+          <t>Quade2020a</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>429</v>
+        <v>199</v>
       </c>
       <c r="C58" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1608</v>
+        <v>0.0503</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01773565016325273</v>
+        <v>0.01549354055711524</v>
       </c>
       <c r="F58" t="n">
-        <v>0.126</v>
+        <v>0.0199</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1956</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Vance2020a</t>
+          <t>Quade2020b</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0747</v>
+        <v>0.0161</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01498049706143932</v>
+        <v>0.007992130706251398</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0453</v>
+        <v>0.0004</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1041</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Quade2020a</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>199</v>
-      </c>
-      <c r="C60" t="n">
-        <v>10</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.0503</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.01549354055711524</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.0199</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.08069999999999999</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Quade2020b</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>248</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.0161</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.007992130706251398</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="G61" t="n">
         <v>0.0318</v>
       </c>
     </row>
@@ -1988,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,112 +3559,56 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Park2022a</t>
+          <t>Kim2022a</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2022</v>
       </c>
       <c r="C58" t="n">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="D58" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1515</v>
+        <v>0.0405</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01973673317354309</v>
+        <v>0.01323041643029118</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1128</v>
+        <v>0.0146</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1902</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Park2022b</t>
+          <t>Folger2022a</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2022</v>
       </c>
       <c r="C59" t="n">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0415</v>
+        <v>0.0145</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01127321885083342</v>
+        <v>0.005444886062385985</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0194</v>
+        <v>0.0038</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0636</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Kim2022a</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C60" t="n">
-        <v>222</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.01323041643029118</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.0664</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Folger2022a</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C61" t="n">
-        <v>482</v>
-      </c>
-      <c r="D61" t="n">
-        <v>7</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.005444886062385985</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="H61" t="n">
         <v>0.0252</v>
       </c>
     </row>
@@ -3729,7 +3623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4942,73 +4836,73 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Park2022a</t>
+          <t>McIlroy2021a</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Journal of Organizational Behavior</t>
+          <t>Journal of Occupational Health Psychology</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1515</v>
+        <v>0.0541</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01973673317354309</v>
+        <v>0.01314847514537897</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1128</v>
+        <v>0.0283</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1902</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Park2022b</t>
+          <t>Boekhorst2021a</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Journal of Organizational Behavior</t>
+          <t>Journal of Occupational Health Psychology</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0415</v>
+        <v>0.0539</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01127321885083342</v>
+        <v>0.01028583100687906</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0194</v>
+        <v>0.0337</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0636</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>McIlroy2021a</t>
+          <t>Boekhorst2021b</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5020,28 +4914,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="E39" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0541</v>
+        <v>0.0854</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01314847514537897</v>
+        <v>0.01275627623302872</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0283</v>
+        <v>0.0604</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0799</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Boekhorst2021a</t>
+          <t>Boekhorst2021c</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5053,28 +4947,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="E40" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0539</v>
+        <v>0.11</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01028583100687906</v>
+        <v>0.01806469853978564</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0337</v>
+        <v>0.0746</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0741</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Boekhorst2021b</t>
+          <t>Boekhorst2021d</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5086,127 +4980,127 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>480</v>
+        <v>267</v>
       </c>
       <c r="E41" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0854</v>
+        <v>0.0112</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01275627623302872</v>
+        <v>0.006440322414987372</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0604</v>
+        <v>-0.0014</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1104</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Boekhorst2021c</t>
+          <t>Strauss2017a</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Journal of Occupational Health Psychology</t>
+          <t>Journal of Vocational Behavior</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="E42" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.11</v>
+        <v>0.0522</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01806469853978564</v>
+        <v>0.0192150360900077</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0746</v>
+        <v>0.0145</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1454</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Boekhorst2021d</t>
+          <t>Burns2014a</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Journal of Occupational Health Psychology</t>
+          <t>Journal of Business and Psychology</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0112</v>
+        <v>0.3109</v>
       </c>
       <c r="G43" t="n">
-        <v>0.006440322414987372</v>
+        <v>0.02355905324153128</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0014</v>
+        <v>0.2647</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0238</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Strauss2017a</t>
+          <t>Golubovich2021a</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Journal of Vocational Behavior</t>
+          <t>Journal of Business and Psychology</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0522</v>
+        <v>0.0346</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0192150360900077</v>
+        <v>0.009811309124857694</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0145</v>
+        <v>0.0154</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Burns2014a</t>
+          <t>Golubovich2021b</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5218,28 +5112,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="E45" t="n">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3109</v>
+        <v>0.0979</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02355905324153128</v>
+        <v>0.01618839291844311</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2647</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3571</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Golubovich2021a</t>
+          <t>Kim2022a</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -5251,28 +5145,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0346</v>
+        <v>0.0405</v>
       </c>
       <c r="G46" t="n">
-        <v>0.009811309124857694</v>
+        <v>0.01323041643029118</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0154</v>
+        <v>0.0146</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0538</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Golubovich2021b</t>
+          <t>Folger2022a</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -5284,94 +5178,94 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>337</v>
+        <v>482</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0979</v>
+        <v>0.0145</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01618839291844311</v>
+        <v>0.005444886062385985</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0038</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1296</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kim2022a</t>
+          <t>Reb2018a</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Journal of Business and Psychology</t>
+          <t>Journal of Occupational and Organizational Psychology</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0405</v>
+        <v>0.374</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01323041643029118</v>
+        <v>0.04362851309031222</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0146</v>
+        <v>0.2885</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0664</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Folger2022a</t>
+          <t>Reb2018b</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Journal of Business and Psychology</t>
+          <t>Journal of Occupational and Organizational Psychology</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>482</v>
+        <v>280</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0145</v>
+        <v>0.4571</v>
       </c>
       <c r="G49" t="n">
-        <v>0.005444886062385985</v>
+        <v>0.0297705265321257</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0038</v>
+        <v>0.3988</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0252</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Reb2018a</t>
+          <t>Reb2018c</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -5383,28 +5277,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E50" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F50" t="n">
-        <v>0.374</v>
+        <v>0.2685</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04362851309031222</v>
+        <v>0.04264493261546767</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2885</v>
+        <v>0.1849</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4595</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Reb2018b</t>
+          <t>Reb2018d</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -5416,28 +5310,28 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="E51" t="n">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4571</v>
+        <v>0.3619</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0297705265321257</v>
+        <v>0.03316110673665763</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3988</v>
+        <v>0.2969</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5154</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Reb2018c</t>
+          <t>Reb2018e</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -5449,94 +5343,94 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="E52" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2685</v>
+        <v>0.3469</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04264493261546767</v>
+        <v>0.0289139447198405</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1849</v>
+        <v>0.2902</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3521</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Reb2018d</t>
+          <t>Richter2017a</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Journal of Occupational and Organizational Psychology</t>
+          <t>Journal of Applied Social Psychology</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E53" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3619</v>
+        <v>0.0639</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03316110673665763</v>
+        <v>0.01652682750552145</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2969</v>
+        <v>0.0315</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4269</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Reb2018e</t>
+          <t>Richter2018a</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Journal of Occupational and Organizational Psychology</t>
+          <t>Journal of Applied Social Psychology</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="E54" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3469</v>
+        <v>0.0473</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0289139447198405</v>
+        <v>0.01154649848304389</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2902</v>
+        <v>0.0247</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4036</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Richter2017a</t>
+          <t>Merritt2020a</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -5548,219 +5442,153 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>219</v>
+        <v>462</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0639</v>
+        <v>0.0541</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01652682750552145</v>
+        <v>0.01052447055768035</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0315</v>
+        <v>0.0335</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0963</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Richter2018a</t>
+          <t>Noble2021a</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Journal of Applied Social Psychology</t>
+          <t>International Journal of Selection and Assessment</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>338</v>
+        <v>429</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0473</v>
+        <v>0.1608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01154649848304389</v>
+        <v>0.01773565016325273</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0247</v>
+        <v>0.126</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0699</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Merritt2020a</t>
+          <t>Vance2020a</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Journal of Applied Social Psychology</t>
+          <t>Human Performance</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0541</v>
+        <v>0.0747</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01052447055768035</v>
+        <v>0.01498049706143932</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0335</v>
+        <v>0.0453</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0747</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Noble2021a</t>
+          <t>Quade2020a</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>International Journal of Selection and Assessment</t>
+          <t>Human Relations</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>429</v>
+        <v>199</v>
       </c>
       <c r="E58" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1608</v>
+        <v>0.0503</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01773565016325273</v>
+        <v>0.01549354055711524</v>
       </c>
       <c r="H58" t="n">
-        <v>0.126</v>
+        <v>0.0199</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1956</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Vance2020a</t>
+          <t>Quade2020b</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Human Performance</t>
+          <t>Human Relations</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="E59" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0747</v>
+        <v>0.0161</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01498049706143932</v>
+        <v>0.007992130706251398</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0453</v>
+        <v>0.0004</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1041</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Quade2020a</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>18</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Human Relations</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>199</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.0503</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.01549354055711524</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.0199</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.08069999999999999</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Quade2020b</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>18</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Human Relations</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>248</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0161</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.007992130706251398</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="I61" t="n">
         <v>0.0318</v>
       </c>
     </row>
@@ -5775,7 +5603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6823,7 +6651,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Park2022a</t>
+          <t>McIlroy2021a</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -6835,28 +6663,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="E32" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1515</v>
+        <v>0.0541</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01973673317354309</v>
+        <v>0.01314847514537897</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1128</v>
+        <v>0.0283</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1902</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Park2022b</t>
+          <t>Boekhorst2021a</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -6868,28 +6696,28 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0415</v>
+        <v>0.0539</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01127321885083342</v>
+        <v>0.01028583100687906</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0194</v>
+        <v>0.0337</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0636</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>McIlroy2021a</t>
+          <t>Boekhorst2021b</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -6901,28 +6729,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="E34" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0541</v>
+        <v>0.0854</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01314847514537897</v>
+        <v>0.01275627623302872</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0283</v>
+        <v>0.0604</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0799</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Boekhorst2021a</t>
+          <t>Boekhorst2021c</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6934,28 +6762,28 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="E35" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0539</v>
+        <v>0.11</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01028583100687906</v>
+        <v>0.01806469853978564</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0337</v>
+        <v>0.0746</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0741</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Boekhorst2021b</t>
+          <t>Boekhorst2021d</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6967,28 +6795,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>480</v>
+        <v>267</v>
       </c>
       <c r="E36" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0854</v>
+        <v>0.0112</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01275627623302872</v>
+        <v>0.006440322414987372</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0604</v>
+        <v>-0.0014</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1104</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Boekhorst2021c</t>
+          <t>Strauss2017a</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -7000,28 +6828,28 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="E37" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11</v>
+        <v>0.0522</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01806469853978564</v>
+        <v>0.0192150360900077</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0746</v>
+        <v>0.0145</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1454</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Boekhorst2021d</t>
+          <t>Burns2014a</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -7033,28 +6861,28 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0112</v>
+        <v>0.3109</v>
       </c>
       <c r="G38" t="n">
-        <v>0.006440322414987372</v>
+        <v>0.02355905324153128</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.0014</v>
+        <v>0.2647</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0238</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Strauss2017a</t>
+          <t>Kim2022a</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -7066,28 +6894,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0522</v>
+        <v>0.0405</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0192150360900077</v>
+        <v>0.01323041643029118</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0145</v>
+        <v>0.0146</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Burns2014a</t>
+          <t>Folger2022a</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -7099,28 +6927,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="E40" t="n">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3109</v>
+        <v>0.0145</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02355905324153128</v>
+        <v>0.005444886062385985</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2647</v>
+        <v>0.0038</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3571</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kim2022a</t>
+          <t>Reb2018a</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -7132,28 +6960,28 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0405</v>
+        <v>0.374</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01323041643029118</v>
+        <v>0.04362851309031222</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0146</v>
+        <v>0.2885</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0664</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Folger2022a</t>
+          <t>Reb2018b</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -7165,28 +6993,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>482</v>
+        <v>280</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0145</v>
+        <v>0.4571</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005444886062385985</v>
+        <v>0.0297705265321257</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0038</v>
+        <v>0.3988</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0252</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Reb2018a</t>
+          <t>Reb2018d</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -7198,28 +7026,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="E43" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F43" t="n">
-        <v>0.374</v>
+        <v>0.3619</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04362851309031222</v>
+        <v>0.03316110673665763</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2885</v>
+        <v>0.2969</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4595</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Reb2018b</t>
+          <t>Richter2017a</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -7231,28 +7059,28 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4571</v>
+        <v>0.0639</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0297705265321257</v>
+        <v>0.01652682750552145</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3988</v>
+        <v>0.0315</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5154</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Reb2018d</t>
+          <t>Richter2018a</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -7264,28 +7092,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="E45" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3619</v>
+        <v>0.0473</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03316110673665763</v>
+        <v>0.01154649848304389</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2969</v>
+        <v>0.0247</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4269</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Richter2017a</t>
+          <t>Vance2020a</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -7297,94 +7125,94 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0639</v>
+        <v>0.0747</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01652682750552145</v>
+        <v>0.01498049706143932</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0315</v>
+        <v>0.0453</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0963</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Richter2018a</t>
+          <t>Harold2016a</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>employee</t>
+          <t>student-employee</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>338</v>
+        <v>463</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0473</v>
+        <v>0.0216</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01154649848304389</v>
+        <v>0.006756077177896454</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0247</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0699</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vance2020a</t>
+          <t>Shao2018a</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>employee</t>
+          <t>student-employee</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="E48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0747</v>
+        <v>0.2222</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01498049706143932</v>
+        <v>0.04000314339500687</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0453</v>
+        <v>0.1438</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1041</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Harold2016a</t>
+          <t>Shao2018b</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -7396,28 +7224,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>463</v>
+        <v>180</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0216</v>
+        <v>0.1222</v>
       </c>
       <c r="G49" t="n">
-        <v>0.006756077177896454</v>
+        <v>0.02441165022415868</v>
       </c>
       <c r="H49" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0348</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Shao2018a</t>
+          <t>Holtz2013a</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -7429,28 +7257,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="E50" t="n">
         <v>24</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2222</v>
+        <v>0.0738</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04000314339500687</v>
+        <v>0.01450236691557093</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1438</v>
+        <v>0.0454</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3006</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Shao2018b</t>
+          <t>Greenbaum2018a</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -7462,94 +7290,94 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="E51" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1222</v>
+        <v>0.078</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02441165022415868</v>
+        <v>0.01816287169631721</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07439999999999999</v>
+        <v>0.0424</v>
       </c>
       <c r="I51" t="n">
-        <v>0.17</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Holtz2013a</t>
+          <t>Schäpers2020a</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>student-employee</t>
+          <t>mixture</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>325</v>
+        <v>1237</v>
       </c>
       <c r="E52" t="n">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0738</v>
+        <v>0.1172</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01450236691557093</v>
+        <v>0.009145556103540521</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0454</v>
+        <v>0.0993</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1022</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Greenbaum2018a</t>
+          <t>Taylor2019a</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>student-employee</t>
+          <t>mixture</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>218</v>
+        <v>413</v>
       </c>
       <c r="E53" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F53" t="n">
-        <v>0.078</v>
+        <v>0.3027</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01816287169631721</v>
+        <v>0.02260690020869745</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0424</v>
+        <v>0.2584</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1136</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Schäpers2020a</t>
+          <t>Quade2020a</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -7561,28 +7389,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1237</v>
+        <v>199</v>
       </c>
       <c r="E54" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1172</v>
+        <v>0.0503</v>
       </c>
       <c r="G54" t="n">
-        <v>0.009145556103540521</v>
+        <v>0.01549354055711524</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0993</v>
+        <v>0.0199</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1351</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Taylor2019a</t>
+          <t>Quade2020b</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -7594,87 +7422,21 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="E55" t="n">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3027</v>
+        <v>0.0161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02260690020869745</v>
+        <v>0.007992130706251398</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2584</v>
+        <v>0.0004</v>
       </c>
       <c r="I55" t="n">
-        <v>0.347</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Quade2020a</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>mixture</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>199</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.0503</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.01549354055711524</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.0199</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.08069999999999999</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Quade2020b</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>mixture</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>248</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0161</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.007992130706251398</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="I57" t="n">
         <v>0.0318</v>
       </c>
     </row>
@@ -7689,7 +7451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8770,7 +8532,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Park2022a</t>
+          <t>McIlroy2021a</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -8782,28 +8544,28 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1515</v>
+        <v>0.0541</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01973673317354309</v>
+        <v>0.01314847514537897</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1128</v>
+        <v>0.0283</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1902</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Park2022b</t>
+          <t>Boekhorst2021a</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -8815,28 +8577,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0415</v>
+        <v>0.0539</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01127321885083342</v>
+        <v>0.01028583100687906</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0194</v>
+        <v>0.0337</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0636</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>McIlroy2021a</t>
+          <t>Boekhorst2021b</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -8848,28 +8610,28 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0541</v>
+        <v>0.0854</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01314847514537897</v>
+        <v>0.01275627623302872</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0283</v>
+        <v>0.0604</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0799</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Boekhorst2021a</t>
+          <t>Boekhorst2021c</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -8881,28 +8643,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="E36" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0539</v>
+        <v>0.11</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01028583100687906</v>
+        <v>0.01806469853978564</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0337</v>
+        <v>0.0746</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0741</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Boekhorst2021b</t>
+          <t>Boekhorst2021d</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -8914,28 +8676,28 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>480</v>
+        <v>267</v>
       </c>
       <c r="E37" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0854</v>
+        <v>0.0112</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01275627623302872</v>
+        <v>0.006440322414987372</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0604</v>
+        <v>-0.0014</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1104</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Boekhorst2021c</t>
+          <t>Strauss2017a</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -8947,28 +8709,28 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="E38" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.11</v>
+        <v>0.0522</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01806469853978564</v>
+        <v>0.0192150360900077</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0746</v>
+        <v>0.0145</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1454</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Boekhorst2021d</t>
+          <t>Burns2014a</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -8980,28 +8742,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0112</v>
+        <v>0.3109</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006440322414987372</v>
+        <v>0.02355905324153128</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0014</v>
+        <v>0.2647</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0238</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Strauss2017a</t>
+          <t>Golubovich2021a</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -9013,28 +8775,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0522</v>
+        <v>0.0346</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0192150360900077</v>
+        <v>0.009811309124857694</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0145</v>
+        <v>0.0154</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Burns2014a</t>
+          <t>Golubovich2021b</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -9046,28 +8808,28 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="E41" t="n">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3109</v>
+        <v>0.0979</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02355905324153128</v>
+        <v>0.01618839291844311</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2647</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3571</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Golubovich2021a</t>
+          <t>Kim2022a</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -9079,28 +8841,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0346</v>
+        <v>0.0405</v>
       </c>
       <c r="G42" t="n">
-        <v>0.009811309124857694</v>
+        <v>0.01323041643029118</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0154</v>
+        <v>0.0146</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0538</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Golubovich2021b</t>
+          <t>Reb2018a</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -9112,28 +8874,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>337</v>
+        <v>123</v>
       </c>
       <c r="E43" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0979</v>
+        <v>0.374</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01618839291844311</v>
+        <v>0.04362851309031222</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.2885</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1296</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kim2022a</t>
+          <t>Reb2018b</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -9145,28 +8907,28 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="E44" t="n">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0405</v>
+        <v>0.4571</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01323041643029118</v>
+        <v>0.0297705265321257</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0146</v>
+        <v>0.3988</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0664</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Reb2018a</t>
+          <t>Reb2018c</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -9178,28 +8940,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E45" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F45" t="n">
-        <v>0.374</v>
+        <v>0.2685</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04362851309031222</v>
+        <v>0.04264493261546767</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2885</v>
+        <v>0.1849</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4595</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Reb2018b</t>
+          <t>Reb2018e</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -9211,28 +8973,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E46" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4571</v>
+        <v>0.3469</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0297705265321257</v>
+        <v>0.0289139447198405</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3988</v>
+        <v>0.2902</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5154</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Reb2018c</t>
+          <t>Richter2017a</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -9244,28 +9006,28 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="E47" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2685</v>
+        <v>0.0639</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04264493261546767</v>
+        <v>0.01652682750552145</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1849</v>
+        <v>0.0315</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3521</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Reb2018e</t>
+          <t>Richter2018a</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -9277,28 +9039,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="E48" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3469</v>
+        <v>0.0473</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0289139447198405</v>
+        <v>0.01154649848304389</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2902</v>
+        <v>0.0247</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4036</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Richter2017a</t>
+          <t>Merritt2020a</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -9310,28 +9072,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>219</v>
+        <v>462</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0639</v>
+        <v>0.0541</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01652682750552145</v>
+        <v>0.01052447055768035</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0315</v>
+        <v>0.0335</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0963</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Richter2018a</t>
+          <t>Noble2021a</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -9343,28 +9105,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>338</v>
+        <v>429</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0473</v>
+        <v>0.1608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01154649848304389</v>
+        <v>0.01773565016325273</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0247</v>
+        <v>0.126</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0699</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Merritt2020a</t>
+          <t>Vance2020a</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -9376,28 +9138,28 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0541</v>
+        <v>0.0747</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01052447055768035</v>
+        <v>0.01498049706143932</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0335</v>
+        <v>0.0453</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0747</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Noble2021a</t>
+          <t>Quade2020a</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -9409,28 +9171,28 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>429</v>
+        <v>199</v>
       </c>
       <c r="E52" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1608</v>
+        <v>0.0503</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01773565016325273</v>
+        <v>0.01549354055711524</v>
       </c>
       <c r="H52" t="n">
-        <v>0.126</v>
+        <v>0.0199</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1956</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vance2020a</t>
+          <t>Quade2020b</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -9442,94 +9204,94 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="E53" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0747</v>
+        <v>0.0161</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01498049706143932</v>
+        <v>0.007992130706251398</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0453</v>
+        <v>0.0004</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1041</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Quade2020a</t>
+          <t>Harold2016a</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>volunteer</t>
+          <t>snowball</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>199</v>
+        <v>463</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0503</v>
+        <v>0.0216</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01549354055711524</v>
+        <v>0.006756077177896454</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0199</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Quade2020b</t>
+          <t>Ong2018a</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>volunteer</t>
+          <t>snowball</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0161</v>
+        <v>0.25</v>
       </c>
       <c r="G55" t="n">
-        <v>0.007992130706251398</v>
+        <v>0.03263956049169334</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0004</v>
+        <v>0.186</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0318</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Harold2016a</t>
+          <t>Holtz2013a</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -9541,28 +9303,28 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>463</v>
+        <v>325</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0216</v>
+        <v>0.0738</v>
       </c>
       <c r="G56" t="n">
-        <v>0.006756077177896454</v>
+        <v>0.01450236691557093</v>
       </c>
       <c r="H56" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0454</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0348</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ong2018a</t>
+          <t>Folger2022a</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -9574,120 +9336,54 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="E57" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.25</v>
+        <v>0.0145</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03263956049169334</v>
+        <v>0.005444886062385985</v>
       </c>
       <c r="H57" t="n">
-        <v>0.186</v>
+        <v>0.0038</v>
       </c>
       <c r="I57" t="n">
-        <v>0.314</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Holtz2013a</t>
+          <t>Reb2018d</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>snowball</t>
+          <t>conveniance</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0738</v>
+        <v>0.3619</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01450236691557093</v>
+        <v>0.03316110673665763</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0454</v>
+        <v>0.2969</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1022</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Folger2022a</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>snowball</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>482</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.005444886062385985</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.0252</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Reb2018d</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>conveniance</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>210</v>
-      </c>
-      <c r="E60" t="n">
-        <v>76</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.3619</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.03316110673665763</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.2969</v>
-      </c>
-      <c r="I60" t="n">
         <v>0.4269</v>
       </c>
     </row>
@@ -9702,7 +9398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10255,7 +9951,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Park2022a</t>
+          <t>Burns2014a</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -10267,28 +9963,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1515</v>
+        <v>0.3109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01973673317354309</v>
+        <v>0.02355905324153128</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1128</v>
+        <v>0.2647</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1902</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Park2022b</t>
+          <t>Kim2022a</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10300,28 +9996,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>313</v>
+        <v>222</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0415</v>
+        <v>0.0405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01127321885083342</v>
+        <v>0.01323041643029118</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0194</v>
+        <v>0.0146</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0636</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Burns2014a</t>
+          <t>Reb2018a</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -10333,28 +10029,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>386</v>
+        <v>123</v>
       </c>
       <c r="E19" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3109</v>
+        <v>0.374</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02355905324153128</v>
+        <v>0.04362851309031222</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2647</v>
+        <v>0.2885</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3571</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kim2022a</t>
+          <t>Reb2018b</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -10366,28 +10062,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0405</v>
+        <v>0.4571</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01323041643029118</v>
+        <v>0.0297705265321257</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0146</v>
+        <v>0.3988</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0664</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Reb2018a</t>
+          <t>Reb2018e</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10399,28 +10095,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="E21" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F21" t="n">
-        <v>0.374</v>
+        <v>0.3469</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04362851309031222</v>
+        <v>0.0289139447198405</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2885</v>
+        <v>0.2902</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4595</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reb2018b</t>
+          <t>Merritt2020a</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10432,28 +10128,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4571</v>
+        <v>0.0541</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0297705265321257</v>
+        <v>0.01052447055768035</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3988</v>
+        <v>0.0335</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5154</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Reb2018e</t>
+          <t>Noble2021a</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -10465,28 +10161,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="E23" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3469</v>
+        <v>0.1608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0289139447198405</v>
+        <v>0.01773565016325273</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2902</v>
+        <v>0.126</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4036</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Merritt2020a</t>
+          <t>Vance2020a</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -10498,160 +10194,160 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0541</v>
+        <v>0.0747</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01052447055768035</v>
+        <v>0.01498049706143932</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0335</v>
+        <v>0.0453</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0747</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Noble2021a</t>
+          <t>Wellman2016a</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>mturk</t>
+          <t>qualtrics</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>429</v>
+        <v>244</v>
       </c>
       <c r="E25" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1608</v>
+        <v>0.0205</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01773565016325273</v>
+        <v>0.009071607210249416</v>
       </c>
       <c r="H25" t="n">
-        <v>0.126</v>
+        <v>0.0027</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1956</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vance2020a</t>
+          <t>Greenbaum2022c</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mturk</t>
+          <t>qualtrics</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0747</v>
+        <v>0.0582</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01498049706143932</v>
+        <v>0.01411804261477941</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0453</v>
+        <v>0.0305</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1041</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Wellman2016a</t>
+          <t>Ouyang2018a</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>qualtrics</t>
+          <t>prolific</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0205</v>
+        <v>0.0221</v>
       </c>
       <c r="G27" t="n">
-        <v>0.009071607210249416</v>
+        <v>0.008930149191119136</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0027</v>
+        <v>0.0046</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0383</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Greenbaum2022c</t>
+          <t>Koopman2021a</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>qualtrics</t>
+          <t>prolific</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0582</v>
+        <v>0.0543</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01411804261477941</v>
+        <v>0.01524335178875224</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0305</v>
+        <v>0.0244</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0859</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ouyang2018a</t>
+          <t>McIlroy2021a</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -10663,28 +10359,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0221</v>
+        <v>0.0541</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008930149191119136</v>
+        <v>0.01314847514537897</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0046</v>
+        <v>0.0283</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0396</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Koopman2021a</t>
+          <t>Boekhorst2021a</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -10696,28 +10392,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>221</v>
+        <v>482</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0543</v>
+        <v>0.0539</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01524335178875224</v>
+        <v>0.01028583100687906</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0244</v>
+        <v>0.0337</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0842</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>McIlroy2021a</t>
+          <t>Boekhorst2021b</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -10729,28 +10425,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0541</v>
+        <v>0.0854</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01314847514537897</v>
+        <v>0.01275627623302872</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0283</v>
+        <v>0.0604</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0799</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Boekhorst2021a</t>
+          <t>Boekhorst2021c</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -10762,28 +10458,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0539</v>
+        <v>0.11</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01028583100687906</v>
+        <v>0.01806469853978564</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0337</v>
+        <v>0.0746</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0741</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Boekhorst2021b</t>
+          <t>Boekhorst2021d</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -10795,193 +10491,193 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>480</v>
+        <v>267</v>
       </c>
       <c r="E33" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0854</v>
+        <v>0.0112</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01275627623302872</v>
+        <v>0.006440322414987372</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0604</v>
+        <v>-0.0014</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1104</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Boekhorst2021c</t>
+          <t>Colquitt2014a</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>prolific</t>
+          <t>university platform</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="E34" t="n">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11</v>
+        <v>0.2931</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01806469853978564</v>
+        <v>0.02501917029350147</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0746</v>
+        <v>0.2441</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1454</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Boekhorst2021d</t>
+          <t>Holtz2013b</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>prolific</t>
+          <t>university platform</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0112</v>
+        <v>0.0708</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006440322414987372</v>
+        <v>0.01706149211746547</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0014</v>
+        <v>0.0374</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0238</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colquitt2014a</t>
+          <t>Taylor2019a</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>university platform</t>
+          <t>mixture</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="E36" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2931</v>
+        <v>0.3027</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02501917029350147</v>
+        <v>0.02260690020869745</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2441</v>
+        <v>0.2584</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3421</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Holtz2013b</t>
+          <t>Colbert2016a</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>university platform</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0708</v>
+        <v>0.1952</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01706149211746547</v>
+        <v>0.02735106509634976</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0374</v>
+        <v>0.1416</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1042</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Taylor2019a</t>
+          <t>Strauss2017a</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>mixture</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="E38" t="n">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3027</v>
+        <v>0.0522</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02260690020869745</v>
+        <v>0.0192150360900077</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2584</v>
+        <v>0.0145</v>
       </c>
       <c r="I38" t="n">
-        <v>0.347</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colbert2016a</t>
+          <t>Richter2017a</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -10993,28 +10689,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E39" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1952</v>
+        <v>0.0639</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02735106509634976</v>
+        <v>0.01652682750552145</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1416</v>
+        <v>0.0315</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2488</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Strauss2017a</t>
+          <t>Richter2018a</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -11026,87 +10722,21 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0522</v>
+        <v>0.0473</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0192150360900077</v>
+        <v>0.01154649848304389</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0145</v>
+        <v>0.0247</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08989999999999999</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Richter2017a</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>219</v>
-      </c>
-      <c r="E41" t="n">
-        <v>14</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.01652682750552145</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0315</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.0963</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Richter2018a</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>338</v>
-      </c>
-      <c r="E42" t="n">
-        <v>16</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0473</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.01154649848304389</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0247</v>
-      </c>
-      <c r="I42" t="n">
         <v>0.0699</v>
       </c>
     </row>
